--- a/gráficosNodes2.xlsx
+++ b/gráficosNodes2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="16280" windowHeight="14560" tabRatio="714" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="16275" windowHeight="14565" tabRatio="714" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes-641" sheetId="6" r:id="rId1"/>
@@ -19,14 +19,15 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,6 +526,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="79" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,165 +536,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="79" applyFont="1"/>
   </cellXfs>
   <cellStyles count="158">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="79"/>
   </cellStyles>
@@ -715,9 +716,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -754,7 +755,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -771,10 +771,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.148463596391287"/>
+          <c:x val="0.14846359639128701"/>
           <c:y val="0.108987634818539"/>
-          <c:w val="0.826564837738075"/>
-          <c:h val="0.652282481555241"/>
+          <c:w val="0.82656483773807499"/>
+          <c:h val="0.65228248155524104"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -809,25 +809,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,22 +839,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.020305</c:v>
+                  <c:v>2.0305E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.210775</c:v>
+                  <c:v>0.21077499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.207534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18449</c:v>
+                  <c:v>0.18448999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.211104</c:v>
+                  <c:v>0.21110400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26584</c:v>
+                  <c:v>0.26584000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.216225</c:v>
@@ -863,6 +863,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0657-48B5-9D3C-E250BA7E17CD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -890,25 +895,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,30 +925,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.020305</c:v>
+                  <c:v>2.0305E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.009834</c:v>
+                  <c:v>9.8340000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.014631</c:v>
+                  <c:v>1.4631E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.017262</c:v>
+                  <c:v>1.7262E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.019785</c:v>
+                  <c:v>1.9785000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.026098</c:v>
+                  <c:v>2.6098E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03125</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0657-48B5-9D3C-E250BA7E17CD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -972,25 +982,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,30 +1012,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.020305</c:v>
+                  <c:v>2.0305E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0101525</c:v>
+                  <c:v>1.01525E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00507625</c:v>
+                  <c:v>5.07625E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.002538125</c:v>
+                  <c:v>2.538125E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0012690625</c:v>
+                  <c:v>1.2690625E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000846041666666666</c:v>
+                  <c:v>8.4604166666666595E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00063453125</c:v>
+                  <c:v>6.3453125E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0657-48B5-9D3C-E250BA7E17CD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1036,7 +1051,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2144462824"/>
         <c:axId val="-2146344712"/>
@@ -1078,8 +1092,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
+              <c:x val="0.40496983563774203"/>
+              <c:y val="0.82445890804086097"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1125,11 +1139,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2146344712"/>
-        <c:crossesAt val="0.001"/>
+        <c:crossesAt val="1E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1138,10 +1152,10 @@
       <c:valAx>
         <c:axId val="-2146344712"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="0.001"/>
+          <c:max val="100"/>
+          <c:min val="1E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1189,8 +1203,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
+              <c:x val="1.06241690979562E-2"/>
+              <c:y val="0.40453599013764802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1230,7 +1244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2144462824"/>
@@ -1247,7 +1261,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1276,7 +1289,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1288,9 +1301,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1327,7 +1340,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1347,7 +1359,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
+            <c:v>SpeedUp ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
@@ -1360,7 +1372,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-B6DC-4A98-BA4D-C5165C2C4F14}"/>
               </c:ext>
@@ -1376,25 +1388,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,25 +1418,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B6DC-4A98-BA4D-C5165C2C4F14}"/>
             </c:ext>
@@ -1449,25 +1461,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,31 +1491,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.012227373811564</c:v>
+                  <c:v>2.0122273738115637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.499307029273301</c:v>
+                  <c:v>3.4993070292733006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.42329211544674</c:v>
+                  <c:v>5.4232921154467402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.369355780232096</c:v>
+                  <c:v>7.3693557802320964</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.521936761659481</c:v>
+                  <c:v>5.5219367616594814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0236623817767105</c:v>
+                  <c:v>2.3662381776710505E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B6DC-4A98-BA4D-C5165C2C4F14}"/>
             </c:ext>
@@ -1528,25 +1540,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,31 +1570,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68364815213544</c:v>
+                  <c:v>0.6836481521354405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.669592351720383</c:v>
+                  <c:v>0.66959235172038334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.710849571450644</c:v>
+                  <c:v>0.7108495714506442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.786087180902415</c:v>
+                  <c:v>0.78608718090241481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.709686225304353</c:v>
+                  <c:v>0.70968622530435288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.700775142161206</c:v>
+                  <c:v>0.70077514216120562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B6DC-4A98-BA4D-C5165C2C4F14}"/>
             </c:ext>
@@ -1597,7 +1609,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2133092584"/>
         <c:axId val="2128299896"/>
@@ -1639,8 +1650,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.421789079643733"/>
-              <c:y val="0.776905977855157"/>
+              <c:x val="0.42178907964373302"/>
+              <c:y val="0.77690597785515703"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1686,7 +1697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128299896"/>
@@ -1747,8 +1758,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0190193147131247"/>
-              <c:y val="0.396387640815771"/>
+              <c:x val="1.9019314713124701E-2"/>
+              <c:y val="0.39638764081577099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1788,7 +1799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133092584"/>
@@ -1809,10 +1820,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717704"/>
-          <c:y val="0.881193405781484"/>
-          <c:w val="0.481945134635948"/>
-          <c:h val="0.0713681719824617"/>
+          <c:x val="0.28124506658889864"/>
+          <c:y val="0.88119351258894485"/>
+          <c:w val="0.48194513463594801"/>
+          <c:h val="7.1368171982461703E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1843,7 +1854,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1855,9 +1866,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1894,7 +1905,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1940,25 +1950,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,10 +1980,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.578037</c:v>
+                  <c:v>1.5780369999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.669708</c:v>
+                  <c:v>0.66970799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.481603</c:v>
@@ -1982,19 +1992,19 @@
                   <c:v>0.307311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.235187</c:v>
+                  <c:v>0.23518700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.232628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.257456</c:v>
+                  <c:v>0.25745600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BEA-4D85-AE35-B52C834A6438}"/>
             </c:ext>
@@ -2024,25 +2034,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,31 +2064,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.578037</c:v>
+                  <c:v>1.5780369999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7890185</c:v>
+                  <c:v>0.78901849999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39450925</c:v>
+                  <c:v>0.39450924999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.197254625</c:v>
+                  <c:v>0.19725462499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0986273125</c:v>
+                  <c:v>9.8627312499999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0657515416666667</c:v>
+                  <c:v>6.5751541666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04931365625</c:v>
+                  <c:v>4.9313656249999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9BEA-4D85-AE35-B52C834A6438}"/>
             </c:ext>
@@ -2092,7 +2102,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2127817704"/>
         <c:axId val="2128589768"/>
@@ -2134,8 +2143,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
+              <c:x val="0.40496983563774203"/>
+              <c:y val="0.82445890804086097"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2181,7 +2190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128589768"/>
@@ -2195,7 +2204,7 @@
       <c:valAx>
         <c:axId val="2128589768"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2244,8 +2253,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
+              <c:x val="1.06241690979562E-2"/>
+              <c:y val="0.40453599013764802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2285,7 +2294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2127817704"/>
@@ -2302,7 +2311,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2331,7 +2339,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2343,9 +2351,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2382,7 +2390,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2415,7 +2422,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-D0FF-43BB-8365-5A1A6C7864B0}"/>
               </c:ext>
@@ -2428,25 +2435,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,25 +2465,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0FF-43BB-8365-5A1A6C7864B0}"/>
             </c:ext>
@@ -2498,25 +2505,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,31 +2535,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.356306031882552</c:v>
+                  <c:v>2.3563060318825517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.276634489403097</c:v>
+                  <c:v>3.2766344894030972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.134983778647689</c:v>
+                  <c:v>5.1349837786476886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.709711846318036</c:v>
+                  <c:v>6.7097118463180356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.78352133019241</c:v>
+                  <c:v>6.7835213301924098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1293463737493</c:v>
+                  <c:v>6.1293463737492999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0FF-43BB-8365-5A1A6C7864B0}"/>
             </c:ext>
@@ -2566,7 +2573,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2129890680"/>
         <c:axId val="2117415704"/>
@@ -2608,8 +2614,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.421789079643733"/>
-              <c:y val="0.776905977855157"/>
+              <c:x val="0.42178907964373302"/>
+              <c:y val="0.77690597785515703"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2655,7 +2661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2117415704"/>
@@ -2716,8 +2722,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0190193147131247"/>
-              <c:y val="0.396387640815771"/>
+              <c:x val="1.9019314713124701E-2"/>
+              <c:y val="0.39638764081577099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2757,7 +2763,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2129890680"/>
@@ -2778,10 +2784,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717704"/>
-          <c:y val="0.881193405781484"/>
+          <c:x val="0.37408463717703999"/>
+          <c:y val="0.88119340578148397"/>
           <c:w val="0.402566562268586"/>
-          <c:h val="0.0849620731501354"/>
+          <c:h val="8.4962073150135403E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2812,7 +2818,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2824,9 +2830,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2867,8 +2873,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.433962378579443"/>
-          <c:y val="0.0175208035399197"/>
+          <c:x val="0.43396237857944298"/>
+          <c:y val="1.7520803539919701E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2912,25 +2918,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,27 +2951,32 @@
                   <c:v>480.461862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.277734</c:v>
+                  <c:v>204.27773400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>125.349537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.406091</c:v>
+                  <c:v>87.406091000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.308206</c:v>
+                  <c:v>77.308205999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42.221083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.450328</c:v>
+                  <c:v>38.450327999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E55-4655-97F9-7EB1BA085EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2990,25 +3001,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,27 +3034,32 @@
                   <c:v>480.461862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.807517</c:v>
+                  <c:v>184.80751699999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.575956</c:v>
+                  <c:v>102.57595600000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.235024</c:v>
+                  <c:v>79.235023999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.93078800000001</c:v>
+                  <c:v>75.930788000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>88.001002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189.693415</c:v>
+                  <c:v>189.69341499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E55-4655-97F9-7EB1BA085EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3069,25 +3085,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,6 +3139,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E55-4655-97F9-7EB1BA085EE1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3132,7 +3153,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2126205592"/>
         <c:axId val="-2128930136"/>
@@ -3174,8 +3194,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44398436458145"/>
-              <c:y val="0.805562756672184"/>
+              <c:x val="0.44398436458145002"/>
+              <c:y val="0.80556275667218402"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3221,11 +3241,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2128930136"/>
-        <c:crossesAt val="0.001"/>
+        <c:crossesAt val="1E-3"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3234,10 +3254,10 @@
       <c:valAx>
         <c:axId val="-2128930136"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000.0"/>
-          <c:min val="1.0"/>
+          <c:max val="1000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3285,8 +3305,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0085294087918086"/>
-              <c:y val="0.321553651045744"/>
+              <c:x val="8.5294087918086001E-3"/>
+              <c:y val="0.32155365104574402"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3326,13 +3346,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2126205592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="10.0"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3348,10 +3368,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.349502576762022"/>
-          <c:y val="0.909590202434966"/>
-          <c:w val="0.319732455347485"/>
-          <c:h val="0.0753933755704688"/>
+          <c:x val="0.34950257676202201"/>
+          <c:y val="0.90959020243496602"/>
+          <c:w val="0.31973245534748501"/>
+          <c:h val="7.5393375570468796E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3382,7 +3402,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3394,9 +3414,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3437,7 +3457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3479,25 +3498,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,19 +3528,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.352003092025683</c:v>
+                  <c:v>2.3520030920256829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.83297675842233</c:v>
+                  <c:v>3.8329767584223302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.496892224593363</c:v>
+                  <c:v>5.4968922245933634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.214888261667849</c:v>
+                  <c:v>6.2148882616678494</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.37966693085537</c:v>
@@ -3533,6 +3552,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01C4-468F-8E85-9B1EF602CDFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3558,51 +3582,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]RAM-641'!$T$22:$T$25</c:f>
+              <c:f>'RAM-641'!$T$22:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01C4-468F-8E85-9B1EF602CDFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3627,25 +3659,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,22 +3689,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.59979610028525</c:v>
+                  <c:v>2.5997961002852499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.683961824347998</c:v>
+                  <c:v>4.6839618243479979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.063756123807068</c:v>
+                  <c:v>6.0637561238070683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.327629077153788</c:v>
+                  <c:v>6.3276290771537882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.459731719872916</c:v>
+                  <c:v>5.4597317198729156</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.532833635790678</c:v>
@@ -3681,6 +3713,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-01C4-468F-8E85-9B1EF602CDFC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3690,7 +3727,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2128649528"/>
         <c:axId val="-2124987608"/>
@@ -3732,8 +3768,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.443267971010704"/>
-              <c:y val="0.845013367796877"/>
+              <c:x val="0.44326797101070398"/>
+              <c:y val="0.84501336779687697"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3779,7 +3815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2124987608"/>
@@ -3840,8 +3876,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0121234253590918"/>
-              <c:y val="0.325987455378781"/>
+              <c:x val="1.21234253590918E-2"/>
+              <c:y val="0.32598745537878099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3881,7 +3917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128649528"/>
@@ -3898,7 +3934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3927,7 +3962,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3939,9 +3974,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3982,8 +4017,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.433962378579443"/>
-          <c:y val="0.0175208035399197"/>
+          <c:x val="0.43396237857944298"/>
+          <c:y val="1.7520803539919701E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4002,10 +4037,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0757684996004755"/>
-          <c:y val="0.0892251622157211"/>
+          <c:x val="7.5768499600475506E-2"/>
+          <c:y val="8.9225162215721104E-2"/>
           <c:w val="0.908895140285924"/>
-          <c:h val="0.694052280422254"/>
+          <c:h val="0.69405228042225398"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4027,25 +4062,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,30 +4092,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>649.431485</c:v>
+                  <c:v>649.43148499999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.507382</c:v>
+                  <c:v>197.50738200000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.552012</c:v>
+                  <c:v>93.552012000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62.926752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.366109</c:v>
+                  <c:v>48.366109000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.371532</c:v>
+                  <c:v>45.371532000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.674204</c:v>
+                  <c:v>62.674204000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAB3-41D9-B229-9A2A08AFA40F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4106,25 +4146,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,30 +4176,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>649.431485</c:v>
+                  <c:v>649.43148499999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>324.7157425</c:v>
+                  <c:v>324.71574249999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.35787125</c:v>
+                  <c:v>162.35787124999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.17893562499999</c:v>
+                  <c:v>81.178935624999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.5894678125</c:v>
+                  <c:v>40.589467812499997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.05964520833333</c:v>
+                  <c:v>27.059645208333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.29473390625</c:v>
+                  <c:v>20.294733906249999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAB3-41D9-B229-9A2A08AFA40F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4169,7 +4214,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2127587032"/>
         <c:axId val="2127593352"/>
@@ -4211,7 +4255,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.426583333829725"/>
+              <c:x val="0.42658333382972502"/>
               <c:y val="0.842930456903348"/>
             </c:manualLayout>
           </c:layout>
@@ -4258,7 +4302,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2127593352"/>
@@ -4271,7 +4315,7 @@
       <c:valAx>
         <c:axId val="2127593352"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4320,8 +4364,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0085294087918086"/>
-              <c:y val="0.321553651045744"/>
+              <c:x val="8.5294087918086001E-3"/>
+              <c:y val="0.32155365104574402"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4361,7 +4405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2127587032"/>
@@ -4378,7 +4422,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4407,7 +4450,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4419,9 +4462,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4462,7 +4505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4479,10 +4521,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0698058209594512"/>
-          <c:y val="0.0817506841800096"/>
-          <c:w val="0.911076529768009"/>
-          <c:h val="0.733669390576594"/>
+          <c:x val="6.9805820959451204E-2"/>
+          <c:y val="8.1750684180009595E-2"/>
+          <c:w val="0.91107652976800901"/>
+          <c:h val="0.73366939057659397"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4513,25 +4555,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4543,30 +4585,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.288137782110847</c:v>
+                  <c:v>3.2881377821108475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.94192964016637</c:v>
+                  <c:v>6.9419296401663697</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.32043549617816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.42740812580148</c:v>
+                  <c:v>13.427408125801477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.31363360179242</c:v>
+                  <c:v>14.313633601792418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.3620220689201</c:v>
+                  <c:v>10.362022068920092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BF4-41FE-86A1-60924D4FAEEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4589,25 +4636,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4619,24 +4666,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BF4-41FE-86A1-60924D4FAEEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4646,7 +4698,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2121348888"/>
         <c:axId val="-2121342584"/>
@@ -4735,7 +4786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2121342584"/>
@@ -4796,8 +4847,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0121234253590918"/>
-              <c:y val="0.325987455378781"/>
+              <c:x val="1.21234253590918E-2"/>
+              <c:y val="0.32598745537878099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4837,7 +4888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2121348888"/>
@@ -4858,10 +4909,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.394164821001021"/>
-          <c:y val="0.938738927860982"/>
-          <c:w val="0.343069632129415"/>
-          <c:h val="0.0612610721390179"/>
+          <c:x val="0.39416482100102102"/>
+          <c:y val="0.93873892786098201"/>
+          <c:w val="0.34306963212941499"/>
+          <c:h val="6.1261072139017901E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4892,7 +4943,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4904,9 +4955,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4943,7 +4994,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4988,25 +5038,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5018,30 +5068,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0963349543351915</c:v>
+                  <c:v>9.63349543351915E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0978393901722127</c:v>
+                  <c:v>9.7839390172212701E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.110060165862648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0961848188570562</c:v>
+                  <c:v>9.6184818857056195E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0763805296418898</c:v>
+                  <c:v>7.6380529641889794E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0939068100358423</c:v>
+                  <c:v>9.3906810035842295E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FB5-41FA-B692-C42C8EB69086}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -5070,25 +5125,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,21 +5155,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FB5-41FA-B692-C42C8EB69086}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5142,25 +5202,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5172,22 +5232,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.064775269473256</c:v>
+                  <c:v>2.0647752694732562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.387806711776365</c:v>
+                  <c:v>1.3878067117763651</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.17628316533426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.026282537275714</c:v>
+                  <c:v>1.0262825372757141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.778028967736991</c:v>
+                  <c:v>0.77802896773699104</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.64976</c:v>
@@ -5196,6 +5256,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2FB5-41FA-B692-C42C8EB69086}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -5206,7 +5271,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2142180904"/>
         <c:axId val="-2142019768"/>
@@ -5248,8 +5312,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.421789079643733"/>
-              <c:y val="0.776905977855157"/>
+              <c:x val="0.42178907964373302"/>
+              <c:y val="0.77690597785515703"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5295,7 +5359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2142019768"/>
@@ -5356,8 +5420,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0190193147131247"/>
-              <c:y val="0.396387640815771"/>
+              <c:x val="1.9019314713124701E-2"/>
+              <c:y val="0.39638764081577099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5397,7 +5461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2142180904"/>
@@ -5418,10 +5482,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717704"/>
-          <c:y val="0.881193405781484"/>
+          <c:x val="0.37408463717703999"/>
+          <c:y val="0.88119340578148397"/>
           <c:w val="0.36151759934236"/>
-          <c:h val="0.0849620731501354"/>
+          <c:h val="8.4962073150135403E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5452,7 +5516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5464,9 +5528,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5503,7 +5567,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5545,25 +5608,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,30 +5638,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.295703301673451</c:v>
+                  <c:v>2.2957033016734512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.518791143028127</c:v>
+                  <c:v>1.5187911430281269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.31804726045183</c:v>
+                  <c:v>1.3180472604518301</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.081383953300098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.941043420223219</c:v>
+                  <c:v>0.94104342022321896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.768315572777912</c:v>
+                  <c:v>0.76831557277791196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-227D-45E2-BA26-1B346C5118CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5627,25 +5695,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5657,21 +5725,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-227D-45E2-BA26-1B346C5118CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5702,25 +5775,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5732,22 +5805,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.120394880406835</c:v>
+                  <c:v>0.12039488040683501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.120302997264871</c:v>
+                  <c:v>0.12030299726487099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.120219226360217</c:v>
+                  <c:v>0.12021922636021699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.120254544076117</c:v>
+                  <c:v>0.12025454407611701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.086911407143591</c:v>
+                  <c:v>8.6911407143590996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.109048644142809</c:v>
@@ -5756,6 +5829,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-227D-45E2-BA26-1B346C5118CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -5766,7 +5844,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2129319320"/>
         <c:axId val="-2129322968"/>
@@ -5809,7 +5886,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.418033394331012"/>
-              <c:y val="0.797107354602558"/>
+              <c:y val="0.79710735460255799"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5855,7 +5932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2129322968"/>
@@ -5916,8 +5993,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0190193147131247"/>
-              <c:y val="0.396387640815771"/>
+              <c:x val="1.9019314713124701E-2"/>
+              <c:y val="0.39638764081577099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5957,7 +6034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2129319320"/>
@@ -5978,10 +6055,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.268624970576846"/>
-          <c:y val="0.896650185965581"/>
-          <c:w val="0.479582381035543"/>
-          <c:h val="0.0795756721265034"/>
+          <c:x val="0.26862497057684598"/>
+          <c:y val="0.89665018596558099"/>
+          <c:w val="0.47958238103554302"/>
+          <c:h val="7.9575672126503405E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6012,7 +6089,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6024,9 +6101,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6063,7 +6140,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6108,25 +6184,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6138,30 +6214,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.025379</c:v>
+                  <c:v>2.5378999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.210798</c:v>
+                  <c:v>0.21079800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.210959</c:v>
+                  <c:v>0.21095900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.211106</c:v>
+                  <c:v>0.21110599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.211044</c:v>
+                  <c:v>0.21104400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29201</c:v>
+                  <c:v>0.29200999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.232731</c:v>
+                  <c:v>0.23273099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D43D-4FEC-981B-4D4174BB6AAF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6189,25 +6270,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6219,30 +6300,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.025379</c:v>
+                  <c:v>2.5378999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.011055</c:v>
+                  <c:v>1.1055000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01671</c:v>
+                  <c:v>1.6709999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.019255</c:v>
+                  <c:v>1.9255000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.023469</c:v>
+                  <c:v>2.3469E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.026969</c:v>
+                  <c:v>2.6969E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.033032</c:v>
+                  <c:v>3.3031999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D43D-4FEC-981B-4D4174BB6AAF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6271,25 +6357,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6301,30 +6387,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.025379</c:v>
+                  <c:v>2.5378999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0126895</c:v>
+                  <c:v>1.2689499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00634475</c:v>
+                  <c:v>6.3447499999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003172375</c:v>
+                  <c:v>3.1723749999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0015861875</c:v>
+                  <c:v>1.5861874999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00105745833333333</c:v>
+                  <c:v>1.05745833333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00079309375</c:v>
+                  <c:v>7.9309374999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D43D-4FEC-981B-4D4174BB6AAF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -6335,7 +6426,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2129359864"/>
         <c:axId val="-2129366296"/>
@@ -6377,8 +6467,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
+              <c:x val="0.40496983563774203"/>
+              <c:y val="0.82445890804086097"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6424,11 +6514,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2129366296"/>
-        <c:crossesAt val="0.001"/>
+        <c:crossesAt val="1E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6437,10 +6527,10 @@
       <c:valAx>
         <c:axId val="-2129366296"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="0.001"/>
+          <c:max val="100"/>
+          <c:min val="1E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6488,8 +6578,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
+              <c:x val="1.06241690979562E-2"/>
+              <c:y val="0.40453599013764802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6529,7 +6619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2129359864"/>
@@ -6546,7 +6636,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6575,7 +6664,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6587,9 +6676,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6626,7 +6715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6672,25 +6760,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6705,28 +6793,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.091697</c:v>
+                  <c:v>9.1697000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.075243</c:v>
+                  <c:v>7.5243000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.065716</c:v>
+                  <c:v>6.5715999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.063927</c:v>
+                  <c:v>6.3926999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.083245</c:v>
+                  <c:v>8.3245E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.523219</c:v>
+                  <c:v>33.523218999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ABE6-4FB6-BB99-B240E18599C3}"/>
             </c:ext>
@@ -6756,25 +6844,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6789,28 +6877,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.088267</c:v>
+                  <c:v>8.8266999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0441335</c:v>
+                  <c:v>4.4133499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02206675</c:v>
+                  <c:v>2.206675E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.011033375</c:v>
+                  <c:v>1.1033375E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00735558333333333</c:v>
+                  <c:v>7.3555833333333329E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0055166875</c:v>
+                  <c:v>5.5166874999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ABE6-4FB6-BB99-B240E18599C3}"/>
             </c:ext>
@@ -6839,25 +6927,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6872,28 +6960,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.748875</c:v>
+                  <c:v>0.74887499999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.589951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.557405</c:v>
+                  <c:v>0.55740500000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.638264</c:v>
+                  <c:v>0.63826400000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.763211</c:v>
+                  <c:v>0.76321099999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.749137</c:v>
+                  <c:v>0.74913700000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ABE6-4FB6-BB99-B240E18599C3}"/>
             </c:ext>
@@ -6907,7 +6995,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2134030168"/>
         <c:axId val="2134024136"/>
@@ -6949,8 +7036,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
+              <c:x val="0.40496983563774203"/>
+              <c:y val="0.82445890804086097"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6973,11 +7060,11 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134024136"/>
-        <c:crossesAt val="0.001"/>
+        <c:crossesAt val="1E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6986,7 +7073,7 @@
       <c:valAx>
         <c:axId val="2134024136"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7035,8 +7122,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
+              <c:x val="1.06241690979562E-2"/>
+              <c:y val="0.40453599013764802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7076,7 +7163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134030168"/>
@@ -7093,7 +7180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7122,7 +7208,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7134,9 +7220,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7173,7 +7259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7193,7 +7278,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
+            <c:v>TSpeedUP ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
@@ -7206,7 +7291,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-D99F-4285-B724-455D5EA56B83}"/>
               </c:ext>
@@ -7222,25 +7307,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7252,22 +7337,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D99F-4285-B724-455D5EA56B83}"/>
             </c:ext>
@@ -7292,25 +7377,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7322,31 +7407,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.925188392204761</c:v>
+                  <c:v>1.9251883922047612</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.346185027178608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.686316878690121</c:v>
+                  <c:v>2.6863168786901213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.761493578613106</c:v>
+                  <c:v>2.7614935786131056</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.120655895248964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00526602173854486</c:v>
+                  <c:v>5.2660217385448582E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D99F-4285-B724-455D5EA56B83}"/>
             </c:ext>
@@ -7371,25 +7456,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7401,31 +7486,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.235732265064263</c:v>
+                  <c:v>0.23573226506426306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.299235021213626</c:v>
+                  <c:v>0.29923502121362622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.316706882787201</c:v>
+                  <c:v>0.31670688278720138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.276584610756677</c:v>
+                  <c:v>0.27658461075667745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.231304318202961</c:v>
+                  <c:v>0.23130431820296091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.235649821060767</c:v>
+                  <c:v>0.23564982106076723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D99F-4285-B724-455D5EA56B83}"/>
             </c:ext>
@@ -7440,7 +7525,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2133974664"/>
         <c:axId val="2133968232"/>
@@ -7482,8 +7566,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.421789079643733"/>
-              <c:y val="0.776905977855157"/>
+              <c:x val="0.42178907964373302"/>
+              <c:y val="0.77690597785515703"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7529,7 +7613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133968232"/>
@@ -7590,8 +7674,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0190193147131247"/>
-              <c:y val="0.396387640815771"/>
+              <c:x val="1.9019314713124701E-2"/>
+              <c:y val="0.39638764081577099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7631,7 +7715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2133974664"/>
@@ -7652,10 +7736,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717704"/>
-          <c:y val="0.881193405781484"/>
-          <c:w val="0.488368776125207"/>
-          <c:h val="0.0713681719824617"/>
+          <c:x val="0.28519568387284921"/>
+          <c:y val="0.88119351258894485"/>
+          <c:w val="0.48836877612520702"/>
+          <c:h val="7.1368171982461703E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7686,7 +7770,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7698,9 +7782,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7737,7 +7821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7783,25 +7866,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7816,28 +7899,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.077781</c:v>
+                  <c:v>7.7781000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.068737</c:v>
+                  <c:v>6.8737000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06853</c:v>
+                  <c:v>6.8529999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.073486</c:v>
+                  <c:v>7.3485999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.082187</c:v>
+                  <c:v>8.2186999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.097718</c:v>
+                  <c:v>9.7717999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9418-4AC1-9D9E-1A21D1DC6D04}"/>
             </c:ext>
@@ -7867,25 +7950,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7900,28 +7983,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.088267</c:v>
+                  <c:v>8.8266999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0441335</c:v>
+                  <c:v>4.4133499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02206675</c:v>
+                  <c:v>2.206675E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.011033375</c:v>
+                  <c:v>1.1033375E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00735558333333333</c:v>
+                  <c:v>7.3555833333333329E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0055166875</c:v>
+                  <c:v>5.5166874999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9418-4AC1-9D9E-1A21D1DC6D04}"/>
             </c:ext>
@@ -7935,7 +8018,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2089901048"/>
         <c:axId val="2089907480"/>
@@ -7977,8 +8059,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
+              <c:x val="0.40496983563774203"/>
+              <c:y val="0.82445890804086097"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8024,11 +8106,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089907480"/>
-        <c:crossesAt val="0.001"/>
+        <c:crossesAt val="1E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8037,7 +8119,7 @@
       <c:valAx>
         <c:axId val="2089907480"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8086,8 +8168,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
+              <c:x val="1.06241690979562E-2"/>
+              <c:y val="0.40453599013764802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8127,7 +8209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089901048"/>
@@ -8144,7 +8226,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8173,7 +8254,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8185,9 +8266,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8224,7 +8305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8257,7 +8337,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-38F9-439D-A077-FD60BE387169}"/>
               </c:ext>
@@ -8273,25 +8353,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8303,22 +8383,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38F9-439D-A077-FD60BE387169}"/>
             </c:ext>
@@ -8343,25 +8423,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8373,31 +8453,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.269628829662771</c:v>
+                  <c:v>2.2696288296627709</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.568252906004044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.576010506347585</c:v>
+                  <c:v>2.5760105063475853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.402280706529135</c:v>
+                  <c:v>2.4022807065291349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.147955272731697</c:v>
+                  <c:v>2.1479552727316973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.806565832292925</c:v>
+                  <c:v>1.8065658322929246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-38F9-439D-A077-FD60BE387169}"/>
             </c:ext>
@@ -8412,7 +8492,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2089854744"/>
         <c:axId val="2089848328"/>
@@ -8454,8 +8533,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.421789079643733"/>
-              <c:y val="0.776905977855157"/>
+              <c:x val="0.42178907964373302"/>
+              <c:y val="0.77690597785515703"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8501,7 +8580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089848328"/>
@@ -8562,8 +8641,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0190193147131247"/>
-              <c:y val="0.396387640815771"/>
+              <c:x val="1.9019314713124701E-2"/>
+              <c:y val="0.39638764081577099"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8603,7 +8682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2089854744"/>
@@ -8624,10 +8703,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717704"/>
-          <c:y val="0.881193405781484"/>
+          <c:x val="0.37408463717703999"/>
+          <c:y val="0.88119340578148397"/>
           <c:w val="0.402566562268586"/>
-          <c:h val="0.0849620731501354"/>
+          <c:h val="8.4962073150135403E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8658,7 +8737,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8670,9 +8749,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8709,7 +8788,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8755,25 +8833,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8785,31 +8863,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.578037</c:v>
+                  <c:v>1.5780369999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.784224</c:v>
+                  <c:v>0.78422400000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.450957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.290974</c:v>
+                  <c:v>0.29097400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.214135</c:v>
+                  <c:v>0.21413499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.285776</c:v>
+                  <c:v>0.28577599999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.689694</c:v>
+                  <c:v>66.689694000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D908-4175-BFB1-F8954C10E214}"/>
             </c:ext>
@@ -8839,25 +8917,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8869,31 +8947,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.578037</c:v>
+                  <c:v>1.5780369999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7890185</c:v>
+                  <c:v>0.78901849999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39450925</c:v>
+                  <c:v>0.39450924999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.197254625</c:v>
+                  <c:v>0.19725462499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0986273125</c:v>
+                  <c:v>9.8627312499999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0657515416666667</c:v>
+                  <c:v>6.5751541666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04931365625</c:v>
+                  <c:v>4.9313656249999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D908-4175-BFB1-F8954C10E214}"/>
             </c:ext>
@@ -8922,25 +9000,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8952,31 +9030,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.578037</c:v>
+                  <c:v>1.5780369999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.308259</c:v>
+                  <c:v>2.3082590000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.356713</c:v>
+                  <c:v>2.3567130000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.219931</c:v>
+                  <c:v>2.2199309999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.007458</c:v>
+                  <c:v>2.0074580000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.22357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.251845</c:v>
+                  <c:v>2.2518449999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D908-4175-BFB1-F8954C10E214}"/>
             </c:ext>
@@ -8990,7 +9068,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2135438600"/>
         <c:axId val="2135445016"/>
@@ -9032,8 +9109,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.404969835637742"/>
-              <c:y val="0.824458908040861"/>
+              <c:x val="0.40496983563774203"/>
+              <c:y val="0.82445890804086097"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9079,7 +9156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2135445016"/>
@@ -9092,7 +9169,7 @@
       <c:valAx>
         <c:axId val="2135445016"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9141,8 +9218,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0106241690979562"/>
-              <c:y val="0.404535990137648"/>
+              <c:x val="1.06241690979562E-2"/>
+              <c:y val="0.40453599013764802"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9182,7 +9259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2135438600"/>
@@ -9199,7 +9276,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9228,7 +9304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9256,7 +9332,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9288,7 +9370,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9325,7 +9413,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9357,7 +9451,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9397,7 +9497,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9435,7 +9535,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9478,7 +9578,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9516,7 +9616,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9559,7 +9659,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9597,7 +9697,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9640,7 +9740,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9678,7 +9778,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9718,7 +9818,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9750,7 +9856,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9787,7 +9899,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9819,7 +9937,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9840,7 +9964,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="19KBytes-641"/>
@@ -9852,12 +9976,9 @@
       <sheetName val="RAM-641"/>
       <sheetName val="RAM-662"/>
       <sheetName val="Otimização do Compilador"/>
-      <sheetName val="19KBytes-641"/>
-      <sheetName val="19KBytes-662"/>
-      <sheetName val="RAM-641"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="6">
           <cell r="K6">
             <v>2.0305E-2</v>
@@ -10025,7 +10146,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="6">
           <cell r="K6">
             <v>2.5378999999999999E-2</v>
@@ -10197,7 +10318,7 @@
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6" refreshError="1">
         <row r="6">
           <cell r="B6">
             <v>1</v>
@@ -10502,9 +10623,19 @@
         </row>
       </sheetData>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RAM-641"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10803,45 +10934,45 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15" thickBot="1">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -10885,8 +11016,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
-    <row r="6" spans="2:18">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -10933,7 +11064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -10972,7 +11103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -11011,7 +11142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -11050,7 +11181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -11086,7 +11217,7 @@
         <v>1.0262825372757138</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -11122,7 +11253,7 @@
         <v>0.77802896773699137</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -11158,22 +11289,22 @@
         <v>0.64976</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" thickBot="1"/>
-    <row r="18" spans="2:15" ht="15" thickBot="1">
-      <c r="D18" s="24" t="s">
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -11208,7 +11339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -11246,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>2</v>
       </c>
@@ -11285,7 +11416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -11324,7 +11455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>8</v>
       </c>
@@ -11363,7 +11494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>16</v>
       </c>
@@ -11399,7 +11530,7 @@
         <v>9.6184818857056237E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>24</v>
       </c>
@@ -11435,7 +11566,7 @@
         <v>7.6380529641889849E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>32</v>
       </c>
@@ -11495,27 +11626,27 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="16384" width="10.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="16" thickBot="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16" thickBot="1">
+    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -11532,7 +11663,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="16" thickBot="1">
+    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -11585,7 +11716,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11610,7 +11741,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12">
         <v>1</v>
@@ -11665,7 +11796,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -11716,7 +11847,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
@@ -11767,7 +11898,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -11818,7 +11949,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>16</v>
@@ -11867,7 +11998,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>24</v>
@@ -11916,7 +12047,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>32</v>
@@ -11965,7 +12096,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -11990,7 +12121,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -12015,7 +12146,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -12040,7 +12171,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -12065,7 +12196,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12090,7 +12221,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="16" thickBot="1">
+    <row r="18" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -12117,17 +12248,17 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="16" thickBot="1">
+    <row r="19" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -12144,7 +12275,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="16" thickBot="1">
+    <row r="20" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -12191,7 +12322,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12216,7 +12347,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="12">
         <v>1</v>
@@ -12265,7 +12396,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>2</v>
@@ -12316,7 +12447,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>4</v>
@@ -12367,7 +12498,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>8</v>
@@ -12418,7 +12549,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>16</v>
@@ -12467,7 +12598,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>24</v>
@@ -12516,7 +12647,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>32</v>
@@ -12565,7 +12696,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12590,7 +12721,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12615,7 +12746,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -12640,7 +12771,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -12665,7 +12796,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -12690,7 +12821,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -12715,7 +12846,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -12740,7 +12871,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -12765,7 +12896,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -12790,7 +12921,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12815,7 +12946,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -12850,26 +12981,26 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -12877,17 +13008,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15" thickBot="1"/>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -12931,8 +13062,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
-    <row r="6" spans="2:18">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -12979,7 +13110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15">
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -13018,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -13057,7 +13188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -13096,7 +13227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -13132,7 +13263,7 @@
         <v>2.7614935786131056</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -13168,7 +13299,7 @@
         <v>2.120655895248964</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15">
+    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -13204,21 +13335,21 @@
         <v>5.2660217385448582E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1">
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1">
-      <c r="D15" s="24" t="s">
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:18" ht="15" thickBot="1">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -13262,7 +13393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -13309,7 +13440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15">
+    <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>2</v>
       </c>
@@ -13348,7 +13479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>4</v>
       </c>
@@ -13387,7 +13518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>8</v>
       </c>
@@ -13426,7 +13557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>16</v>
       </c>
@@ -13462,7 +13593,7 @@
         <v>0.27658461075667745</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>24</v>
       </c>
@@ -13498,7 +13629,7 @@
         <v>0.23130431820296091</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="15">
+    <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>32</v>
       </c>
@@ -13558,41 +13689,41 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15" thickBot="1"/>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -13636,8 +13767,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
-    <row r="6" spans="2:18">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -13684,7 +13815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15">
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -13723,7 +13854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -13762,7 +13893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -13801,7 +13932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -13837,7 +13968,7 @@
         <v>2.4022807065291349</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -13873,7 +14004,7 @@
         <v>2.1479552727316973</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15">
+    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -13928,30 +14059,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -13959,17 +14090,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15" thickBot="1"/>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -14013,8 +14144,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
-    <row r="6" spans="2:18">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -14061,7 +14192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -14100,7 +14231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -14139,7 +14270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -14178,7 +14309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -14217,7 +14348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -14253,7 +14384,7 @@
         <v>5.5219367616594814</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -14289,22 +14420,22 @@
         <v>2.3662381776710505E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D14" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1"/>
-    <row r="16" spans="2:18" ht="15" thickBot="1">
-      <c r="D16" s="24" t="s">
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:18" ht="15" thickBot="1">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -14348,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -14395,7 +14526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>2</v>
       </c>
@@ -14434,7 +14565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>4</v>
       </c>
@@ -14473,7 +14604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>8</v>
       </c>
@@ -14512,7 +14643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>16</v>
       </c>
@@ -14551,7 +14682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>24</v>
       </c>
@@ -14587,7 +14718,7 @@
         <v>0.70968622530435288</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>32</v>
       </c>
@@ -14647,41 +14778,41 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15" thickBot="1"/>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -14725,8 +14856,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
-    <row r="6" spans="2:18">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -14773,7 +14904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -14812,7 +14943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -14851,7 +14982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -14890,7 +15021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -14929,7 +15060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -14965,7 +15096,7 @@
         <v>6.7835213301924098</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -15020,50 +15151,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="P36" workbookViewId="0">
-      <selection activeCell="AA60" sqref="AA60"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="1.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="29" customHeight="1" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="3" spans="2:24" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:24" ht="35" customHeight="1" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -15104,8 +15235,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="8" customHeight="1"/>
-    <row r="6" spans="2:24">
+    <row r="5" spans="2:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -15144,7 +15275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -15184,7 +15315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -15224,7 +15355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -15263,7 +15394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -15298,8 +15429,11 @@
         <f t="shared" si="3"/>
         <v>6.3276290771537882</v>
       </c>
-    </row>
-    <row r="11" spans="2:24">
+      <c r="T10" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -15335,7 +15469,7 @@
         <v>5.4597317198729165</v>
       </c>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -15371,22 +15505,22 @@
         <v>2.5328336357906784</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15" thickBot="1"/>
-    <row r="19" spans="2:20" ht="15" thickBot="1">
-      <c r="D19" s="24" t="s">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:20" ht="15" thickBot="1">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
@@ -15421,7 +15555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -15460,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>2</v>
       </c>
@@ -15500,7 +15634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>4</v>
       </c>
@@ -15540,7 +15674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>8</v>
       </c>
@@ -15579,7 +15713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>16</v>
       </c>
@@ -15614,8 +15748,11 @@
         <f t="shared" si="7"/>
         <v>6.2148882616678494</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="T26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -15650,8 +15787,11 @@
         <f t="shared" si="7"/>
         <v>11.379666930855374</v>
       </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="T27" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>32</v>
       </c>
@@ -15707,31 +15847,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="16384" width="10.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="16" thickBot="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" thickBot="1">
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -15749,7 +15889,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="16" thickBot="1">
+    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -15799,7 +15939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -15825,7 +15965,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12">
         <v>1</v>
@@ -15879,7 +16019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -15931,7 +16071,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
@@ -15983,7 +16123,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -16035,7 +16175,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>16</v>
@@ -16087,7 +16227,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>24</v>
@@ -16137,7 +16277,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>32</v>
@@ -16187,7 +16327,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16213,7 +16353,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16239,7 +16379,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -16265,7 +16405,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16291,7 +16431,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -16317,7 +16457,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="16" thickBot="1">
+    <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -16345,17 +16485,17 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16" thickBot="1">
+    <row r="19" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -16373,7 +16513,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16" thickBot="1">
+    <row r="20" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -16419,7 +16559,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16445,7 +16585,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="12">
         <v>1</v>
@@ -16495,7 +16635,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>2</v>
@@ -16547,7 +16687,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>4</v>
@@ -16599,7 +16739,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>8</v>
@@ -16651,7 +16791,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>16</v>
@@ -16703,7 +16843,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>24</v>
@@ -16753,7 +16893,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>32</v>
@@ -16803,7 +16943,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16829,7 +16969,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16855,7 +16995,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16881,7 +17021,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -16907,7 +17047,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -16933,7 +17073,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -16959,7 +17099,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -16985,7 +17125,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -17011,7 +17151,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -17037,7 +17177,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -17067,31 +17207,31 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15" thickBot="1"/>
-    <row r="3" spans="2:13" ht="15" thickBot="1">
-      <c r="D3" s="24" t="s">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8">
         <v>1</v>
       </c>
@@ -17117,8 +17257,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1"/>
-    <row r="6" spans="2:13">
+    <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -17150,7 +17290,7 @@
         <v>49.6259412</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -17178,7 +17318,7 @@
         <v>13.955185</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -17206,7 +17346,7 @@
         <v>12.759304</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>

--- a/gráficosNodes2.xlsx
+++ b/gráficosNodes2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="16275" windowHeight="14565" tabRatio="714" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes-641" sheetId="6" r:id="rId1"/>
@@ -17,17 +17,14 @@
     <sheet name="RAM-662" sheetId="9" r:id="rId8"/>
     <sheet name="Otimização do Compilador" sheetId="7" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -126,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="158">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -458,6 +455,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -537,163 +538,167 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="158">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="157" builtinId="9" hidden="1"/>
+  <cellStyles count="162">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="79"/>
   </cellStyles>
@@ -716,9 +721,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -771,10 +776,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14846359639128701"/>
+          <c:x val="0.148463596391287"/>
           <c:y val="0.108987634818539"/>
-          <c:w val="0.82656483773807499"/>
-          <c:h val="0.65228248155524104"/>
+          <c:w val="0.826564837738075"/>
+          <c:h val="0.652282481555241"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -809,25 +814,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,22 +844,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.0305E-2</c:v>
+                  <c:v>0.020305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21077499999999999</c:v>
+                  <c:v>0.210775</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.207534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18448999999999999</c:v>
+                  <c:v>0.18449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21110400000000001</c:v>
+                  <c:v>0.211104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26584000000000002</c:v>
+                  <c:v>0.26584</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.216225</c:v>
@@ -863,11 +868,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0657-48B5-9D3C-E250BA7E17CD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -895,25 +895,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,35 +925,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.0305E-2</c:v>
+                  <c:v>0.020305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8340000000000007E-3</c:v>
+                  <c:v>0.009834</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4631E-2</c:v>
+                  <c:v>0.014631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7262E-2</c:v>
+                  <c:v>0.017262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9785000000000001E-2</c:v>
+                  <c:v>0.019785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6098E-2</c:v>
+                  <c:v>0.026098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0657-48B5-9D3C-E250BA7E17CD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -982,25 +977,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,35 +1007,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.0305E-2</c:v>
+                  <c:v>0.020305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01525E-2</c:v>
+                  <c:v>0.0101525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.07625E-3</c:v>
+                  <c:v>0.00507625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.538125E-3</c:v>
+                  <c:v>0.002538125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2690625E-3</c:v>
+                  <c:v>0.0012690625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4604166666666595E-4</c:v>
+                  <c:v>0.000846041666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3453125E-4</c:v>
+                  <c:v>0.00063453125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0657-48B5-9D3C-E250BA7E17CD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -1051,12 +1041,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144462824"/>
-        <c:axId val="-2146344712"/>
+        <c:axId val="2104250168"/>
+        <c:axId val="2104257752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144462824"/>
+        <c:axId val="2104250168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,8 +1083,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40496983563774203"/>
-              <c:y val="0.82445890804086097"/>
+              <c:x val="0.404969835637742"/>
+              <c:y val="0.824458908040861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1139,23 +1130,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146344712"/>
-        <c:crossesAt val="1E-3"/>
+        <c:crossAx val="2104257752"/>
+        <c:crossesAt val="0.001"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146344712"/>
+        <c:axId val="2104257752"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="1E-3"/>
+          <c:max val="100.0"/>
+          <c:min val="0.001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1203,8 +1194,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.06241690979562E-2"/>
-              <c:y val="0.40453599013764802"/>
+              <c:x val="0.0106241690979562"/>
+              <c:y val="0.404535990137648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1244,10 +1235,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144462824"/>
+        <c:crossAx val="2104250168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,7 +1280,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1301,9 +1292,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1340,6 +1331,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1359,7 +1351,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SpeedUp ideal</c:v>
+            <c:v>Tempo ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
@@ -1372,7 +1364,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-B6DC-4A98-BA4D-C5165C2C4F14}"/>
               </c:ext>
@@ -1388,25 +1380,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,25 +1410,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B6DC-4A98-BA4D-C5165C2C4F14}"/>
             </c:ext>
@@ -1461,25 +1453,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,31 +1483,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0122273738115637</c:v>
+                  <c:v>2.012227373811564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4993070292733006</c:v>
+                  <c:v>3.499307029273301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4232921154467402</c:v>
+                  <c:v>5.42329211544674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3693557802320964</c:v>
+                  <c:v>7.369355780232096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5219367616594814</c:v>
+                  <c:v>5.521936761659481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3662381776710505E-2</c:v>
+                  <c:v>0.0236623817767105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B6DC-4A98-BA4D-C5165C2C4F14}"/>
             </c:ext>
@@ -1540,25 +1532,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,31 +1562,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6836481521354405</c:v>
+                  <c:v>0.68364815213544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66959235172038334</c:v>
+                  <c:v>0.669592351720383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7108495714506442</c:v>
+                  <c:v>0.710849571450644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78608718090241481</c:v>
+                  <c:v>0.786087180902415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70968622530435288</c:v>
+                  <c:v>0.709686225304353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70077514216120562</c:v>
+                  <c:v>0.700775142161206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B6DC-4A98-BA4D-C5165C2C4F14}"/>
             </c:ext>
@@ -1609,12 +1601,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133092584"/>
-        <c:axId val="2128299896"/>
+        <c:axId val="2103558840"/>
+        <c:axId val="2103552408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133092584"/>
+        <c:axId val="2103558840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,8 +1643,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42178907964373302"/>
-              <c:y val="0.77690597785515703"/>
+              <c:x val="0.421789079643733"/>
+              <c:y val="0.776905977855157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1697,10 +1690,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128299896"/>
+        <c:crossAx val="2103552408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1708,7 +1701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128299896"/>
+        <c:axId val="2103552408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,8 +1751,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9019314713124701E-2"/>
-              <c:y val="0.39638764081577099"/>
+              <c:x val="0.0190193147131247"/>
+              <c:y val="0.396387640815771"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1799,10 +1792,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133092584"/>
+        <c:crossAx val="2103558840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,10 +1813,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28124506658889864"/>
-          <c:y val="0.88119351258894485"/>
-          <c:w val="0.48194513463594801"/>
-          <c:h val="7.1368171982461703E-2"/>
+          <c:x val="0.37408463717704"/>
+          <c:y val="0.881193405781484"/>
+          <c:w val="0.481945134635948"/>
+          <c:h val="0.0713681719824617"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1854,7 +1847,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1866,9 +1859,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1950,25 +1943,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,10 +1973,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5780369999999999</c:v>
+                  <c:v>1.578037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66970799999999997</c:v>
+                  <c:v>0.669708</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.481603</c:v>
@@ -1992,19 +1985,19 @@
                   <c:v>0.307311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23518700000000001</c:v>
+                  <c:v>0.235187</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.232628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25745600000000002</c:v>
+                  <c:v>0.257456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BEA-4D85-AE35-B52C834A6438}"/>
             </c:ext>
@@ -2034,25 +2027,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,31 +2057,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5780369999999999</c:v>
+                  <c:v>1.578037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78901849999999996</c:v>
+                  <c:v>0.7890185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39450924999999998</c:v>
+                  <c:v>0.39450925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19725462499999999</c:v>
+                  <c:v>0.197254625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8627312499999994E-2</c:v>
+                  <c:v>0.0986273125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5751541666666663E-2</c:v>
+                  <c:v>0.0657515416666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9313656249999997E-2</c:v>
+                  <c:v>0.04931365625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9BEA-4D85-AE35-B52C834A6438}"/>
             </c:ext>
@@ -2102,12 +2095,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127817704"/>
-        <c:axId val="2128589768"/>
+        <c:axId val="2103498456"/>
+        <c:axId val="2103492024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127817704"/>
+        <c:axId val="2103498456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,8 +2137,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40496983563774203"/>
-              <c:y val="0.82445890804086097"/>
+              <c:x val="0.404969835637742"/>
+              <c:y val="0.824458908040861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2190,10 +2184,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128589768"/>
+        <c:crossAx val="2103492024"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2202,9 +2196,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128589768"/>
+        <c:axId val="2103492024"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2253,8 +2247,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.06241690979562E-2"/>
-              <c:y val="0.40453599013764802"/>
+              <c:x val="0.0106241690979562"/>
+              <c:y val="0.404535990137648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2294,10 +2288,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127817704"/>
+        <c:crossAx val="2103498456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2339,7 +2333,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2351,9 +2345,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2422,7 +2416,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-D0FF-43BB-8365-5A1A6C7864B0}"/>
               </c:ext>
@@ -2435,25 +2429,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,25 +2459,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0FF-43BB-8365-5A1A6C7864B0}"/>
             </c:ext>
@@ -2505,25 +2499,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,31 +2529,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3563060318825517</c:v>
+                  <c:v>2.356306031882552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2766344894030972</c:v>
+                  <c:v>3.276634489403097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1349837786476886</c:v>
+                  <c:v>5.134983778647689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7097118463180356</c:v>
+                  <c:v>6.709711846318036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7835213301924098</c:v>
+                  <c:v>6.78352133019241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1293463737492999</c:v>
+                  <c:v>6.1293463737493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0FF-43BB-8365-5A1A6C7864B0}"/>
             </c:ext>
@@ -2573,12 +2567,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129890680"/>
-        <c:axId val="2117415704"/>
+        <c:axId val="2103448328"/>
+        <c:axId val="2104933576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129890680"/>
+        <c:axId val="2103448328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,8 +2609,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42178907964373302"/>
-              <c:y val="0.77690597785515703"/>
+              <c:x val="0.421789079643733"/>
+              <c:y val="0.776905977855157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2661,10 +2656,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117415704"/>
+        <c:crossAx val="2104933576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2672,7 +2667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117415704"/>
+        <c:axId val="2104933576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,8 +2717,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9019314713124701E-2"/>
-              <c:y val="0.39638764081577099"/>
+              <c:x val="0.0190193147131247"/>
+              <c:y val="0.396387640815771"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2763,10 +2758,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129890680"/>
+        <c:crossAx val="2103448328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2784,10 +2779,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717703999"/>
-          <c:y val="0.88119340578148397"/>
+          <c:x val="0.37408463717704"/>
+          <c:y val="0.881193405781484"/>
           <c:w val="0.402566562268586"/>
-          <c:h val="8.4962073150135403E-2"/>
+          <c:h val="0.0849620731501354"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2818,7 +2813,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2830,9 +2825,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2873,8 +2868,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43396237857944298"/>
-          <c:y val="1.7520803539919701E-2"/>
+          <c:x val="0.433962378579443"/>
+          <c:y val="0.0175208035399197"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2918,25 +2913,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,32 +2946,27 @@
                   <c:v>480.461862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.27773400000001</c:v>
+                  <c:v>204.277734</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>125.349537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.406091000000004</c:v>
+                  <c:v>87.406091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.308205999999998</c:v>
+                  <c:v>77.308206</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42.221083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.450327999999999</c:v>
+                  <c:v>38.450328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E55-4655-97F9-7EB1BA085EE1}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3001,25 +2991,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,32 +3024,27 @@
                   <c:v>480.461862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.80751699999999</c:v>
+                  <c:v>184.807517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.57595600000001</c:v>
+                  <c:v>102.575956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.235023999999996</c:v>
+                  <c:v>79.235024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.930788000000007</c:v>
+                  <c:v>75.93078800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>88.001002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189.69341499999999</c:v>
+                  <c:v>189.693415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E55-4655-97F9-7EB1BA085EE1}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3085,25 +3070,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,11 +3124,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1E55-4655-97F9-7EB1BA085EE1}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3153,12 +3133,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126205592"/>
-        <c:axId val="-2128930136"/>
+        <c:axId val="2104997096"/>
+        <c:axId val="2105003512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126205592"/>
+        <c:axId val="2104997096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,8 +3175,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44398436458145002"/>
-              <c:y val="0.80556275667218402"/>
+              <c:x val="0.44398436458145"/>
+              <c:y val="0.805562756672184"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3241,23 +3222,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128930136"/>
-        <c:crossesAt val="1E-3"/>
+        <c:crossAx val="2105003512"/>
+        <c:crossesAt val="0.001"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128930136"/>
+        <c:axId val="2105003512"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="1"/>
+          <c:max val="1000.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3305,8 +3286,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.5294087918086001E-3"/>
-              <c:y val="0.32155365104574402"/>
+              <c:x val="0.0085294087918086"/>
+              <c:y val="0.321553651045744"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3346,13 +3327,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126205592"/>
+        <c:crossAx val="2104997096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="10"/>
+        <c:minorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3368,10 +3349,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34950257676202201"/>
-          <c:y val="0.90959020243496602"/>
-          <c:w val="0.31973245534748501"/>
-          <c:h val="7.5393375570468796E-2"/>
+          <c:x val="0.349502576762022"/>
+          <c:y val="0.909590202434966"/>
+          <c:w val="0.319732455347485"/>
+          <c:h val="0.0753933755704688"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3402,7 +3383,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3414,9 +3395,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3457,6 +3438,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3498,25 +3480,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,19 +3510,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3520030920256829</c:v>
+                  <c:v>2.352003092025682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8329767584223302</c:v>
+                  <c:v>3.83297675842233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4968922245933634</c:v>
+                  <c:v>5.496892224593364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2148882616678494</c:v>
+                  <c:v>6.214888261667848</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.37966693085537</c:v>
@@ -3552,11 +3534,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01C4-468F-8E85-9B1EF602CDFC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3582,59 +3559,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RAM-641'!$T$22:$T$26</c:f>
+              <c:f>'[1]RAM-641'!$T$22:$T$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01C4-468F-8E85-9B1EF602CDFC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3659,25 +3628,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,22 +3658,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5997961002852499</c:v>
+                  <c:v>2.59979610028525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6839618243479979</c:v>
+                  <c:v>4.683961824347997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0637561238070683</c:v>
+                  <c:v>6.063756123807068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3276290771537882</c:v>
+                  <c:v>6.327629077153787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4597317198729156</c:v>
+                  <c:v>5.459731719872916</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.532833635790678</c:v>
@@ -3713,11 +3682,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-01C4-468F-8E85-9B1EF602CDFC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3727,12 +3691,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128649528"/>
-        <c:axId val="-2124987608"/>
+        <c:axId val="2105046872"/>
+        <c:axId val="2105053288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128649528"/>
+        <c:axId val="2105046872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,8 +3733,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44326797101070398"/>
-              <c:y val="0.84501336779687697"/>
+              <c:x val="0.443267971010704"/>
+              <c:y val="0.845013367796877"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3815,10 +3780,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124987608"/>
+        <c:crossAx val="2105053288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3826,7 +3791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124987608"/>
+        <c:axId val="2105053288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,8 +3841,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.21234253590918E-2"/>
-              <c:y val="0.32598745537878099"/>
+              <c:x val="0.0121234253590918"/>
+              <c:y val="0.325987455378781"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3917,10 +3882,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128649528"/>
+        <c:crossAx val="2105046872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3934,6 +3899,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3962,7 +3928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3974,9 +3940,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4017,8 +3983,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43396237857944298"/>
-          <c:y val="1.7520803539919701E-2"/>
+          <c:x val="0.433962378579443"/>
+          <c:y val="0.0175208035399197"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4037,10 +4003,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5768499600475506E-2"/>
-          <c:y val="8.9225162215721104E-2"/>
+          <c:x val="0.0757684996004755"/>
+          <c:y val="0.0892251622157211"/>
           <c:w val="0.908895140285924"/>
-          <c:h val="0.69405228042225398"/>
+          <c:h val="0.694052280422254"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4050,7 +4016,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo de execução</c:v>
+            <c:v>1 node</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4062,25 +4028,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,41 +4058,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>649.43148499999995</c:v>
+                  <c:v>649.431485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.50738200000001</c:v>
+                  <c:v>197.507382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.552012000000005</c:v>
+                  <c:v>93.55201199999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62.926752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.366109000000002</c:v>
+                  <c:v>48.366109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.371532000000002</c:v>
+                  <c:v>45.371532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.674204000000003</c:v>
+                  <c:v>62.674204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EAB3-41D9-B229-9A2A08AFA40F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -4146,25 +4107,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,35 +4137,81 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>649.43148499999995</c:v>
+                  <c:v>649.431485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>324.71574249999998</c:v>
+                  <c:v>324.7157425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.35787124999999</c:v>
+                  <c:v>162.35787125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.178935624999994</c:v>
+                  <c:v>81.17893562499997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.589467812499997</c:v>
+                  <c:v>40.5894678125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.059645208333333</c:v>
+                  <c:v>27.05964520833332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.294733906249999</c:v>
+                  <c:v>20.29473390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EAB3-41D9-B229-9A2A08AFA40F}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$P$22:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>649.431485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.479456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.955491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.29579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.809075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.900084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.952705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4214,12 +4221,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127587032"/>
-        <c:axId val="2127593352"/>
+        <c:axId val="2105101624"/>
+        <c:axId val="2105108040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127587032"/>
+        <c:axId val="2105101624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4263,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42658333382972502"/>
+              <c:x val="0.426583333829725"/>
               <c:y val="0.842930456903348"/>
             </c:manualLayout>
           </c:layout>
@@ -4302,10 +4310,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127593352"/>
+        <c:crossAx val="2105108040"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4313,9 +4321,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127593352"/>
+        <c:axId val="2105108040"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4364,8 +4372,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.5294087918086001E-3"/>
-              <c:y val="0.32155365104574402"/>
+              <c:x val="0.0085294087918086"/>
+              <c:y val="0.321553651045744"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4405,10 +4413,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127587032"/>
+        <c:crossAx val="2105101624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,6 +4430,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4450,7 +4459,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4462,9 +4471,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4505,6 +4514,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4521,10 +4531,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9805820959451204E-2"/>
-          <c:y val="8.1750684180009595E-2"/>
-          <c:w val="0.91107652976800901"/>
-          <c:h val="0.73366939057659397"/>
+          <c:x val="0.0698058209594512"/>
+          <c:y val="0.0817506841800096"/>
+          <c:w val="0.911076529768009"/>
+          <c:h val="0.733669390576594"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4534,7 +4544,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tempo de execução</c:v>
+            <c:v>1 Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -4555,25 +4565,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,41 +4595,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2881377821108475</c:v>
+                  <c:v>3.288137782110847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9419296401663697</c:v>
+                  <c:v>6.94192964016637</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.32043549617816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.427408125801477</c:v>
+                  <c:v>13.42740812580148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.313633601792418</c:v>
+                  <c:v>14.31363360179242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.362022068920092</c:v>
+                  <c:v>10.3620220689201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BF4-41FE-86A1-60924D4FAEEA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Tempo ideal</c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -4636,25 +4641,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,29 +4671,75 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3BF4-41FE-86A1-60924D4FAEEA}"/>
-            </c:ext>
-          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RAM-662'!$S$22:$S$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.115086241399248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.23923127374809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.988500819046103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.67984482579286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.8293349970102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.11968768905241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4698,12 +4749,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121348888"/>
-        <c:axId val="-2121342584"/>
+        <c:axId val="2105147464"/>
+        <c:axId val="2105153896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121348888"/>
+        <c:axId val="2105147464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4786,10 +4838,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121342584"/>
+        <c:crossAx val="2105153896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4797,7 +4849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121342584"/>
+        <c:axId val="2105153896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,8 +4899,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.21234253590918E-2"/>
-              <c:y val="0.32598745537878099"/>
+              <c:x val="0.0121234253590918"/>
+              <c:y val="0.325987455378781"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4888,10 +4940,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121348888"/>
+        <c:crossAx val="2105147464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4909,10 +4961,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39416482100102102"/>
-          <c:y val="0.93873892786098201"/>
-          <c:w val="0.34306963212941499"/>
-          <c:h val="6.1261072139017901E-2"/>
+          <c:x val="0.394164821001021"/>
+          <c:y val="0.938738927860982"/>
+          <c:w val="0.312326923613585"/>
+          <c:h val="0.0612610721390179"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4943,7 +4995,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4955,9 +5007,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5038,25 +5090,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,35 +5120,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.63349543351915E-2</c:v>
+                  <c:v>0.0963349543351915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7839390172212701E-2</c:v>
+                  <c:v>0.0978393901722127</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.110060165862648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6184818857056195E-2</c:v>
+                  <c:v>0.0961848188570562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6380529641889794E-2</c:v>
+                  <c:v>0.0763805296418898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3906810035842295E-2</c:v>
+                  <c:v>0.0939068100358423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FB5-41FA-B692-C42C8EB69086}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -5125,25 +5172,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,26 +5202,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FB5-41FA-B692-C42C8EB69086}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5202,25 +5244,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5232,22 +5274,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0647752694732562</c:v>
+                  <c:v>2.064775269473256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3878067117763651</c:v>
+                  <c:v>1.387806711776365</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.17628316533426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0262825372757141</c:v>
+                  <c:v>1.026282537275714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77802896773699104</c:v>
+                  <c:v>0.778028967736991</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.64976</c:v>
@@ -5256,11 +5298,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2FB5-41FA-B692-C42C8EB69086}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -5271,12 +5308,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2142180904"/>
-        <c:axId val="-2142019768"/>
+        <c:axId val="2104335480"/>
+        <c:axId val="2104341896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2142180904"/>
+        <c:axId val="2104335480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,8 +5350,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42178907964373302"/>
-              <c:y val="0.77690597785515703"/>
+              <c:x val="0.421789079643733"/>
+              <c:y val="0.776905977855157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5359,10 +5397,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142019768"/>
+        <c:crossAx val="2104341896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5370,7 +5408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142019768"/>
+        <c:axId val="2104341896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,8 +5458,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9019314713124701E-2"/>
-              <c:y val="0.39638764081577099"/>
+              <c:x val="0.0190193147131247"/>
+              <c:y val="0.396387640815771"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5461,10 +5499,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142180904"/>
+        <c:crossAx val="2104335480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5482,10 +5520,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717703999"/>
-          <c:y val="0.88119340578148397"/>
+          <c:x val="0.37408463717704"/>
+          <c:y val="0.881193405781484"/>
           <c:w val="0.36151759934236"/>
-          <c:h val="8.4962073150135403E-2"/>
+          <c:h val="0.0849620731501354"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5516,7 +5554,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5528,9 +5566,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5567,6 +5605,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5608,25 +5647,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5638,35 +5677,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2957033016734512</c:v>
+                  <c:v>2.295703301673451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5187911430281269</c:v>
+                  <c:v>1.518791143028127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3180472604518301</c:v>
+                  <c:v>1.31804726045183</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.081383953300098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94104342022321896</c:v>
+                  <c:v>0.941043420223219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76831557277791196</c:v>
+                  <c:v>0.768315572777912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-227D-45E2-BA26-1B346C5118CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5695,25 +5729,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5725,26 +5759,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-227D-45E2-BA26-1B346C5118CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5775,25 +5804,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5805,22 +5834,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12039488040683501</c:v>
+                  <c:v>0.120394880406835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12030299726487099</c:v>
+                  <c:v>0.120302997264871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12021922636021699</c:v>
+                  <c:v>0.120219226360217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12025454407611701</c:v>
+                  <c:v>0.120254544076117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6911407143590996E-2</c:v>
+                  <c:v>0.086911407143591</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.109048644142809</c:v>
@@ -5829,11 +5858,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-227D-45E2-BA26-1B346C5118CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -5844,12 +5868,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129319320"/>
-        <c:axId val="-2129322968"/>
+        <c:axId val="2104396472"/>
+        <c:axId val="2104402776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129319320"/>
+        <c:axId val="2104396472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,7 +5911,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.418033394331012"/>
-              <c:y val="0.79710735460255799"/>
+              <c:y val="0.797107354602558"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5932,10 +5957,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129322968"/>
+        <c:crossAx val="2104402776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5943,7 +5968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129322968"/>
+        <c:axId val="2104402776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,8 +6018,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9019314713124701E-2"/>
-              <c:y val="0.39638764081577099"/>
+              <c:x val="0.0190193147131247"/>
+              <c:y val="0.396387640815771"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6034,10 +6059,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129319320"/>
+        <c:crossAx val="2104396472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6055,10 +6080,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26862497057684598"/>
-          <c:y val="0.89665018596558099"/>
-          <c:w val="0.47958238103554302"/>
-          <c:h val="7.9575672126503405E-2"/>
+          <c:x val="0.268624970576846"/>
+          <c:y val="0.896650185965581"/>
+          <c:w val="0.479582381035543"/>
+          <c:h val="0.0795756721265034"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6089,7 +6114,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6101,9 +6126,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6184,25 +6209,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6214,35 +6239,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5378999999999999E-2</c:v>
+                  <c:v>0.025379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21079800000000001</c:v>
+                  <c:v>0.210798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21095900000000001</c:v>
+                  <c:v>0.210959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21110599999999999</c:v>
+                  <c:v>0.211106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21104400000000001</c:v>
+                  <c:v>0.211044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29200999999999999</c:v>
+                  <c:v>0.29201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23273099999999999</c:v>
+                  <c:v>0.232731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D43D-4FEC-981B-4D4174BB6AAF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6270,25 +6290,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6300,35 +6320,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5378999999999999E-2</c:v>
+                  <c:v>0.025379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1055000000000001E-2</c:v>
+                  <c:v>0.011055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6709999999999999E-2</c:v>
+                  <c:v>0.01671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9255000000000001E-2</c:v>
+                  <c:v>0.019255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3469E-2</c:v>
+                  <c:v>0.023469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6969E-2</c:v>
+                  <c:v>0.026969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3031999999999999E-2</c:v>
+                  <c:v>0.033032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D43D-4FEC-981B-4D4174BB6AAF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6357,25 +6372,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,35 +6402,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5378999999999999E-2</c:v>
+                  <c:v>0.025379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2689499999999999E-2</c:v>
+                  <c:v>0.0126895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3447499999999997E-3</c:v>
+                  <c:v>0.00634475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1723749999999998E-3</c:v>
+                  <c:v>0.003172375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5861874999999999E-3</c:v>
+                  <c:v>0.0015861875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.05745833333333E-3</c:v>
+                  <c:v>0.00105745833333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9309374999999996E-4</c:v>
+                  <c:v>0.00079309375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D43D-4FEC-981B-4D4174BB6AAF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -6426,12 +6436,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129359864"/>
-        <c:axId val="-2129366296"/>
+        <c:axId val="2104446680"/>
+        <c:axId val="2104453096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129359864"/>
+        <c:axId val="2104446680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6467,8 +6478,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40496983563774203"/>
-              <c:y val="0.82445890804086097"/>
+              <c:x val="0.404969835637742"/>
+              <c:y val="0.824458908040861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6514,23 +6525,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129366296"/>
-        <c:crossesAt val="1E-3"/>
+        <c:crossAx val="2104453096"/>
+        <c:crossesAt val="0.001"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129366296"/>
+        <c:axId val="2104453096"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="1E-3"/>
+          <c:max val="100.0"/>
+          <c:min val="0.001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6578,8 +6589,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.06241690979562E-2"/>
-              <c:y val="0.40453599013764802"/>
+              <c:x val="0.0106241690979562"/>
+              <c:y val="0.404535990137648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6619,10 +6630,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129359864"/>
+        <c:crossAx val="2104446680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6664,7 +6675,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6676,9 +6687,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6715,6 +6726,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6760,25 +6772,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6793,28 +6805,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1697000000000001E-2</c:v>
+                  <c:v>0.091697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5243000000000004E-2</c:v>
+                  <c:v>0.075243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5715999999999997E-2</c:v>
+                  <c:v>0.065716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3926999999999998E-2</c:v>
+                  <c:v>0.063927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3245E-2</c:v>
+                  <c:v>0.083245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.523218999999997</c:v>
+                  <c:v>33.523219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ABE6-4FB6-BB99-B240E18599C3}"/>
             </c:ext>
@@ -6844,25 +6856,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6877,28 +6889,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8266999999999998E-2</c:v>
+                  <c:v>0.088267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4133499999999999E-2</c:v>
+                  <c:v>0.0441335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.206675E-2</c:v>
+                  <c:v>0.02206675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1033375E-2</c:v>
+                  <c:v>0.011033375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3555833333333329E-3</c:v>
+                  <c:v>0.00735558333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5166874999999999E-3</c:v>
+                  <c:v>0.0055166875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ABE6-4FB6-BB99-B240E18599C3}"/>
             </c:ext>
@@ -6927,25 +6939,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,28 +6972,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74887499999999996</c:v>
+                  <c:v>0.748875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.589951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55740500000000004</c:v>
+                  <c:v>0.557405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63826400000000005</c:v>
+                  <c:v>0.638264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76321099999999997</c:v>
+                  <c:v>0.763211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74913700000000005</c:v>
+                  <c:v>0.749137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ABE6-4FB6-BB99-B240E18599C3}"/>
             </c:ext>
@@ -6995,12 +7007,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134030168"/>
-        <c:axId val="2134024136"/>
+        <c:axId val="2103850824"/>
+        <c:axId val="2103844792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134030168"/>
+        <c:axId val="2103850824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7036,8 +7049,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40496983563774203"/>
-              <c:y val="0.82445890804086097"/>
+              <c:x val="0.404969835637742"/>
+              <c:y val="0.824458908040861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7060,20 +7073,20 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134024136"/>
-        <c:crossesAt val="1E-3"/>
+        <c:crossAx val="2103844792"/>
+        <c:crossesAt val="0.001"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134024136"/>
+        <c:axId val="2103844792"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7122,8 +7135,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.06241690979562E-2"/>
-              <c:y val="0.40453599013764802"/>
+              <c:x val="0.0106241690979562"/>
+              <c:y val="0.404535990137648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7163,10 +7176,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134030168"/>
+        <c:crossAx val="2103850824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7180,6 +7193,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7208,7 +7222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7220,9 +7234,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7259,6 +7273,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7278,7 +7293,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>TSpeedUP ideal</c:v>
+            <c:v>Tempo ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cmpd="sng">
@@ -7291,7 +7306,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-D99F-4285-B724-455D5EA56B83}"/>
               </c:ext>
@@ -7307,25 +7322,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7337,22 +7352,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D99F-4285-B724-455D5EA56B83}"/>
             </c:ext>
@@ -7377,25 +7392,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7407,31 +7422,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9251883922047612</c:v>
+                  <c:v>1.925188392204761</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.346185027178608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6863168786901213</c:v>
+                  <c:v>2.686316878690121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7614935786131056</c:v>
+                  <c:v>2.761493578613106</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.120655895248964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2660217385448582E-3</c:v>
+                  <c:v>0.00526602173854486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D99F-4285-B724-455D5EA56B83}"/>
             </c:ext>
@@ -7456,25 +7471,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,31 +7501,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23573226506426306</c:v>
+                  <c:v>0.235732265064263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29923502121362622</c:v>
+                  <c:v>0.299235021213626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31670688278720138</c:v>
+                  <c:v>0.316706882787201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27658461075667745</c:v>
+                  <c:v>0.276584610756677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23130431820296091</c:v>
+                  <c:v>0.231304318202961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23564982106076723</c:v>
+                  <c:v>0.235649821060767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D99F-4285-B724-455D5EA56B83}"/>
             </c:ext>
@@ -7525,12 +7540,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133974664"/>
-        <c:axId val="2133968232"/>
+        <c:axId val="2103795128"/>
+        <c:axId val="2103788696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133974664"/>
+        <c:axId val="2103795128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,8 +7582,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42178907964373302"/>
-              <c:y val="0.77690597785515703"/>
+              <c:x val="0.421789079643733"/>
+              <c:y val="0.776905977855157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7613,10 +7629,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133968232"/>
+        <c:crossAx val="2103788696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7624,7 +7640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133968232"/>
+        <c:axId val="2103788696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7674,8 +7690,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9019314713124701E-2"/>
-              <c:y val="0.39638764081577099"/>
+              <c:x val="0.0190193147131247"/>
+              <c:y val="0.396387640815771"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7715,10 +7731,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133974664"/>
+        <c:crossAx val="2103795128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7736,10 +7752,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28519568387284921"/>
-          <c:y val="0.88119351258894485"/>
-          <c:w val="0.48836877612520702"/>
-          <c:h val="7.1368171982461703E-2"/>
+          <c:x val="0.37408463717704"/>
+          <c:y val="0.881193405781484"/>
+          <c:w val="0.488368776125207"/>
+          <c:h val="0.0713681719824617"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7770,7 +7786,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7782,9 +7798,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7821,6 +7837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7866,25 +7883,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7899,28 +7916,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7781000000000003E-2</c:v>
+                  <c:v>0.077781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8737000000000006E-2</c:v>
+                  <c:v>0.068737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8529999999999994E-2</c:v>
+                  <c:v>0.06853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3485999999999996E-2</c:v>
+                  <c:v>0.073486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2186999999999996E-2</c:v>
+                  <c:v>0.082187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7717999999999999E-2</c:v>
+                  <c:v>0.097718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9418-4AC1-9D9E-1A21D1DC6D04}"/>
             </c:ext>
@@ -7950,25 +7967,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7983,28 +8000,28 @@
                   <c:v>0.176534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8266999999999998E-2</c:v>
+                  <c:v>0.088267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4133499999999999E-2</c:v>
+                  <c:v>0.0441335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.206675E-2</c:v>
+                  <c:v>0.02206675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1033375E-2</c:v>
+                  <c:v>0.011033375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3555833333333329E-3</c:v>
+                  <c:v>0.00735558333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5166874999999999E-3</c:v>
+                  <c:v>0.0055166875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9418-4AC1-9D9E-1A21D1DC6D04}"/>
             </c:ext>
@@ -8018,12 +8035,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089901048"/>
-        <c:axId val="2089907480"/>
+        <c:axId val="2103734488"/>
+        <c:axId val="2103728056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089901048"/>
+        <c:axId val="2103734488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,8 +8077,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40496983563774203"/>
-              <c:y val="0.82445890804086097"/>
+              <c:x val="0.404969835637742"/>
+              <c:y val="0.824458908040861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8106,20 +8124,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089907480"/>
-        <c:crossesAt val="1E-3"/>
+        <c:crossAx val="2103728056"/>
+        <c:crossesAt val="0.001"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089907480"/>
+        <c:axId val="2103728056"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8168,8 +8186,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.06241690979562E-2"/>
-              <c:y val="0.40453599013764802"/>
+              <c:x val="0.0106241690979562"/>
+              <c:y val="0.404535990137648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8209,10 +8227,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089901048"/>
+        <c:crossAx val="2103734488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8226,6 +8244,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8254,7 +8273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8266,9 +8285,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8305,6 +8324,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8337,7 +8357,7 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-38F9-439D-A077-FD60BE387169}"/>
               </c:ext>
@@ -8353,25 +8373,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8383,22 +8403,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38F9-439D-A077-FD60BE387169}"/>
             </c:ext>
@@ -8423,25 +8443,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8453,31 +8473,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2696288296627709</c:v>
+                  <c:v>2.269628829662771</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.568252906004044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5760105063475853</c:v>
+                  <c:v>2.576010506347585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4022807065291349</c:v>
+                  <c:v>2.402280706529135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1479552727316973</c:v>
+                  <c:v>2.147955272731697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8065658322929246</c:v>
+                  <c:v>1.806565832292925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-38F9-439D-A077-FD60BE387169}"/>
             </c:ext>
@@ -8492,12 +8512,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089854744"/>
-        <c:axId val="2089848328"/>
+        <c:axId val="2103682920"/>
+        <c:axId val="2103676472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089854744"/>
+        <c:axId val="2103682920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8533,8 +8554,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42178907964373302"/>
-              <c:y val="0.77690597785515703"/>
+              <c:x val="0.421789079643733"/>
+              <c:y val="0.776905977855157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8580,10 +8601,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089848328"/>
+        <c:crossAx val="2103676472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8591,7 +8612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089848328"/>
+        <c:axId val="2103676472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8641,8 +8662,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9019314713124701E-2"/>
-              <c:y val="0.39638764081577099"/>
+              <c:x val="0.0190193147131247"/>
+              <c:y val="0.396387640815771"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8682,10 +8703,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089854744"/>
+        <c:crossAx val="2103682920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8703,10 +8724,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37408463717703999"/>
-          <c:y val="0.88119340578148397"/>
+          <c:x val="0.37408463717704"/>
+          <c:y val="0.881193405781484"/>
           <c:w val="0.402566562268586"/>
-          <c:h val="8.4962073150135403E-2"/>
+          <c:h val="0.0849620731501354"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8737,7 +8758,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8749,9 +8770,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8788,6 +8809,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8833,25 +8855,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8863,31 +8885,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5780369999999999</c:v>
+                  <c:v>1.578037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78422400000000003</c:v>
+                  <c:v>0.784224</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.450957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29097400000000001</c:v>
+                  <c:v>0.290974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21413499999999999</c:v>
+                  <c:v>0.214135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28577599999999997</c:v>
+                  <c:v>0.285776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.689694000000003</c:v>
+                  <c:v>66.689694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D908-4175-BFB1-F8954C10E214}"/>
             </c:ext>
@@ -8917,25 +8939,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8947,31 +8969,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5780369999999999</c:v>
+                  <c:v>1.578037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78901849999999996</c:v>
+                  <c:v>0.7890185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39450924999999998</c:v>
+                  <c:v>0.39450925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19725462499999999</c:v>
+                  <c:v>0.197254625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8627312499999994E-2</c:v>
+                  <c:v>0.0986273125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5751541666666663E-2</c:v>
+                  <c:v>0.0657515416666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9313656249999997E-2</c:v>
+                  <c:v>0.04931365625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D908-4175-BFB1-F8954C10E214}"/>
             </c:ext>
@@ -9000,25 +9022,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9030,31 +9052,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5780369999999999</c:v>
+                  <c:v>1.578037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3082590000000001</c:v>
+                  <c:v>2.308259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3567130000000001</c:v>
+                  <c:v>2.356713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2199309999999999</c:v>
+                  <c:v>2.219931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0074580000000002</c:v>
+                  <c:v>2.007458</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.22357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2518449999999999</c:v>
+                  <c:v>2.251845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D908-4175-BFB1-F8954C10E214}"/>
             </c:ext>
@@ -9068,12 +9090,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135438600"/>
-        <c:axId val="2135445016"/>
+        <c:axId val="2103615560"/>
+        <c:axId val="2103609128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135438600"/>
+        <c:axId val="2103615560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9109,8 +9132,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40496983563774203"/>
-              <c:y val="0.82445890804086097"/>
+              <c:x val="0.404969835637742"/>
+              <c:y val="0.824458908040861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9156,10 +9179,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135445016"/>
+        <c:crossAx val="2103609128"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9167,9 +9190,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135445016"/>
+        <c:axId val="2103609128"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9218,8 +9241,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.06241690979562E-2"/>
-              <c:y val="0.40453599013764802"/>
+              <c:x val="0.0106241690979562"/>
+              <c:y val="0.404535990137648"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9259,10 +9282,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135438600"/>
+        <c:crossAx val="2103615560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9276,6 +9299,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9304,7 +9328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9332,13 +9356,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9370,13 +9388,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9413,13 +9425,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9451,13 +9457,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9497,7 +9497,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9535,7 +9535,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9578,7 +9578,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9616,7 +9616,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9659,7 +9659,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9697,7 +9697,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9740,7 +9740,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9778,7 +9778,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9818,13 +9818,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9856,13 +9850,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9899,13 +9887,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9937,13 +9919,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9961,684 +9937,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="19KBytes-641"/>
-      <sheetName val="19KBytes-662"/>
-      <sheetName val="CacheLvL2-641"/>
-      <sheetName val="CacheLvL2-662"/>
-      <sheetName val="CacheLvL3-641"/>
-      <sheetName val="CacheLvL3-662"/>
-      <sheetName val="RAM-641"/>
-      <sheetName val="RAM-662"/>
-      <sheetName val="Otimização do Compilador"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="6">
-          <cell r="K6">
-            <v>2.0305E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>1</v>
-          </cell>
-          <cell r="O6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>9.8340000000000007E-3</v>
-          </cell>
-          <cell r="N7">
-            <v>2.0647752694732557</v>
-          </cell>
-          <cell r="O7">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>1.4631E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>1.3878067117763653</v>
-          </cell>
-          <cell r="O8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>1.7262E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>1.1762831653342603</v>
-          </cell>
-          <cell r="O9">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>1.9785000000000001E-2</v>
-          </cell>
-          <cell r="N10">
-            <v>1.0262825372757138</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>2.6098E-2</v>
-          </cell>
-          <cell r="N11">
-            <v>0.77802896773699137</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>3.125E-2</v>
-          </cell>
-          <cell r="N12">
-            <v>0.64976</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1</v>
-          </cell>
-          <cell r="K21">
-            <v>2.0305E-2</v>
-          </cell>
-          <cell r="M21">
-            <v>2.0305E-2</v>
-          </cell>
-          <cell r="N21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>2</v>
-          </cell>
-          <cell r="K22">
-            <v>0.21077499999999999</v>
-          </cell>
-          <cell r="M22">
-            <v>1.01525E-2</v>
-          </cell>
-          <cell r="N22">
-            <v>9.6334954335191555E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>4</v>
-          </cell>
-          <cell r="K23">
-            <v>0.207534</v>
-          </cell>
-          <cell r="M23">
-            <v>5.07625E-3</v>
-          </cell>
-          <cell r="N23">
-            <v>9.7839390172212742E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>8</v>
-          </cell>
-          <cell r="K24">
-            <v>0.18448999999999999</v>
-          </cell>
-          <cell r="M24">
-            <v>2.538125E-3</v>
-          </cell>
-          <cell r="N24">
-            <v>0.11006016586264838</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="K25">
-            <v>0.21110400000000001</v>
-          </cell>
-          <cell r="M25">
-            <v>1.2690625E-3</v>
-          </cell>
-          <cell r="N25">
-            <v>9.6184818857056237E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>24</v>
-          </cell>
-          <cell r="K26">
-            <v>0.26584000000000002</v>
-          </cell>
-          <cell r="M26">
-            <v>8.4604166666666671E-4</v>
-          </cell>
-          <cell r="N26">
-            <v>7.6380529641889849E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>32</v>
-          </cell>
-          <cell r="K27">
-            <v>0.216225</v>
-          </cell>
-          <cell r="M27">
-            <v>6.3453125E-4</v>
-          </cell>
-          <cell r="N27">
-            <v>9.3906810035842295E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="6">
-          <cell r="K6">
-            <v>2.5378999999999999E-2</v>
-          </cell>
-          <cell r="N6">
-            <v>1</v>
-          </cell>
-          <cell r="O6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>1.1055000000000001E-2</v>
-          </cell>
-          <cell r="N7">
-            <v>2.2957033016734507</v>
-          </cell>
-          <cell r="O7">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>1.6709999999999999E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>1.5187911430281269</v>
-          </cell>
-          <cell r="O8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>1.9255000000000001E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>1.3180472604518305</v>
-          </cell>
-          <cell r="O9">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>2.3469E-2</v>
-          </cell>
-          <cell r="N10">
-            <v>1.081383953300098</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>2.6969E-2</v>
-          </cell>
-          <cell r="N11">
-            <v>0.94104342022321918</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>3.3031999999999999E-2</v>
-          </cell>
-          <cell r="N12">
-            <v>0.76831557277791229</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1</v>
-          </cell>
-          <cell r="K22">
-            <v>2.5378999999999999E-2</v>
-          </cell>
-          <cell r="M22">
-            <v>2.5378999999999999E-2</v>
-          </cell>
-          <cell r="N22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>2</v>
-          </cell>
-          <cell r="K23">
-            <v>0.21079800000000001</v>
-          </cell>
-          <cell r="M23">
-            <v>1.2689499999999999E-2</v>
-          </cell>
-          <cell r="N23">
-            <v>0.12039488040683496</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4</v>
-          </cell>
-          <cell r="K24">
-            <v>0.21095900000000001</v>
-          </cell>
-          <cell r="M24">
-            <v>6.3447499999999997E-3</v>
-          </cell>
-          <cell r="N24">
-            <v>0.12030299726487137</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>8</v>
-          </cell>
-          <cell r="K25">
-            <v>0.21110599999999999</v>
-          </cell>
-          <cell r="M25">
-            <v>3.1723749999999998E-3</v>
-          </cell>
-          <cell r="N25">
-            <v>0.12021922636021715</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>16</v>
-          </cell>
-          <cell r="K26">
-            <v>0.21104400000000001</v>
-          </cell>
-          <cell r="M26">
-            <v>1.5861874999999999E-3</v>
-          </cell>
-          <cell r="N26">
-            <v>0.12025454407611681</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>24</v>
-          </cell>
-          <cell r="K27">
-            <v>0.29200999999999999</v>
-          </cell>
-          <cell r="M27">
-            <v>1.0574583333333332E-3</v>
-          </cell>
-          <cell r="N27">
-            <v>8.6911407143590969E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>32</v>
-          </cell>
-          <cell r="K28">
-            <v>0.23273099999999999</v>
-          </cell>
-          <cell r="M28">
-            <v>7.9309374999999996E-4</v>
-          </cell>
-          <cell r="N28">
-            <v>0.10904864414280865</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1">
-        <row r="6">
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="P6">
-            <v>480.461862</v>
-          </cell>
-          <cell r="S6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>2</v>
-          </cell>
-          <cell r="P7">
-            <v>184.80751699999999</v>
-          </cell>
-          <cell r="S7">
-            <v>2.5997961002852499</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="P8">
-            <v>102.57595600000001</v>
-          </cell>
-          <cell r="S8">
-            <v>4.6839618243479979</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>8</v>
-          </cell>
-          <cell r="P9">
-            <v>79.235023999999996</v>
-          </cell>
-          <cell r="S9">
-            <v>6.0637561238070683</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>16</v>
-          </cell>
-          <cell r="P10">
-            <v>75.930788000000007</v>
-          </cell>
-          <cell r="S10">
-            <v>6.3276290771537882</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>24</v>
-          </cell>
-          <cell r="P11">
-            <v>88.001002</v>
-          </cell>
-          <cell r="S11">
-            <v>5.4597317198729165</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>32</v>
-          </cell>
-          <cell r="P12">
-            <v>189.69341499999999</v>
-          </cell>
-          <cell r="S12">
-            <v>2.5328336357906784</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1</v>
-          </cell>
-          <cell r="P22">
-            <v>480.461862</v>
-          </cell>
-          <cell r="R22">
-            <v>480.461862</v>
-          </cell>
-          <cell r="S22">
-            <v>1</v>
-          </cell>
-          <cell r="T22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>2</v>
-          </cell>
-          <cell r="P23">
-            <v>204.27773400000001</v>
-          </cell>
-          <cell r="R23">
-            <v>240.230931</v>
-          </cell>
-          <cell r="S23">
-            <v>2.3520030920256829</v>
-          </cell>
-          <cell r="T23">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4</v>
-          </cell>
-          <cell r="P24">
-            <v>125.349537</v>
-          </cell>
-          <cell r="R24">
-            <v>120.1154655</v>
-          </cell>
-          <cell r="S24">
-            <v>3.8329767584223307</v>
-          </cell>
-          <cell r="T24">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>8</v>
-          </cell>
-          <cell r="P25">
-            <v>87.406091000000004</v>
-          </cell>
-          <cell r="R25">
-            <v>60.05773275</v>
-          </cell>
-          <cell r="S25">
-            <v>5.4968922245933634</v>
-          </cell>
-          <cell r="T25">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>16</v>
-          </cell>
-          <cell r="P26">
-            <v>77.308205999999998</v>
-          </cell>
-          <cell r="R26">
-            <v>30.028866375</v>
-          </cell>
-          <cell r="S26">
-            <v>6.2148882616678494</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>24</v>
-          </cell>
-          <cell r="P27">
-            <v>42.221083</v>
-          </cell>
-          <cell r="R27">
-            <v>20.01924425</v>
-          </cell>
-          <cell r="S27">
-            <v>11.379666930855374</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>32</v>
-          </cell>
-          <cell r="P28">
-            <v>38.450327999999999</v>
-          </cell>
-          <cell r="R28">
-            <v>15.0144331875</v>
-          </cell>
-          <cell r="S28">
-            <v>12.495650544255435</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="6">
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="P6">
-            <v>649.43148499999995</v>
-          </cell>
-          <cell r="R6">
-            <v>649.43148499999995</v>
-          </cell>
-          <cell r="S6">
-            <v>1</v>
-          </cell>
-          <cell r="T6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>2</v>
-          </cell>
-          <cell r="P7">
-            <v>197.50738200000001</v>
-          </cell>
-          <cell r="R7">
-            <v>324.71574249999998</v>
-          </cell>
-          <cell r="S7">
-            <v>3.2881377821108475</v>
-          </cell>
-          <cell r="T7">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="P8">
-            <v>93.552012000000005</v>
-          </cell>
-          <cell r="R8">
-            <v>162.35787124999999</v>
-          </cell>
-          <cell r="S8">
-            <v>6.9419296401663697</v>
-          </cell>
-          <cell r="T8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>8</v>
-          </cell>
-          <cell r="P9">
-            <v>62.926752</v>
-          </cell>
-          <cell r="R9">
-            <v>81.178935624999994</v>
-          </cell>
-          <cell r="S9">
-            <v>10.32043549617816</v>
-          </cell>
-          <cell r="T9">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>16</v>
-          </cell>
-          <cell r="P10">
-            <v>48.366109000000002</v>
-          </cell>
-          <cell r="R10">
-            <v>40.589467812499997</v>
-          </cell>
-          <cell r="S10">
-            <v>13.427408125801477</v>
-          </cell>
-          <cell r="T10">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>24</v>
-          </cell>
-          <cell r="P11">
-            <v>45.371532000000002</v>
-          </cell>
-          <cell r="R11">
-            <v>27.059645208333333</v>
-          </cell>
-          <cell r="S11">
-            <v>14.313633601792418</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>32</v>
-          </cell>
-          <cell r="P12">
-            <v>62.674204000000003</v>
-          </cell>
-          <cell r="R12">
-            <v>20.294733906249999</v>
-          </cell>
-          <cell r="S12">
-            <v>10.362022068920092</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RAM-641"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10934,36 +10232,36 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="15" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
@@ -10972,7 +10270,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -11016,8 +10314,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -11064,7 +10362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -11103,7 +10401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -11142,7 +10440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -11181,7 +10479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -11217,7 +10515,7 @@
         <v>1.0262825372757138</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -11253,7 +10551,7 @@
         <v>0.77802896773699137</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -11289,13 +10587,13 @@
         <v>0.64976</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="15" thickBot="1"/>
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="D18" s="25" t="s">
         <v>0</v>
       </c>
@@ -11304,7 +10602,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15" thickBot="1">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -11339,7 +10637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -11377,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="6">
         <v>2</v>
       </c>
@@ -11416,7 +10714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="6">
         <v>4</v>
       </c>
@@ -11455,7 +10753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="6">
         <v>8</v>
       </c>
@@ -11494,7 +10792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="6">
         <v>16</v>
       </c>
@@ -11530,7 +10828,7 @@
         <v>9.6184818857056237E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="6">
         <v>24</v>
       </c>
@@ -11566,7 +10864,7 @@
         <v>7.6380529641889849E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="6">
         <v>32</v>
       </c>
@@ -11626,17 +10924,17 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.85546875" style="12"/>
+    <col min="1" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="16" thickBot="1">
       <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="16" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11663,7 +10961,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="16" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -11716,7 +11014,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11741,7 +11039,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1"/>
       <c r="B6" s="12">
         <v>1</v>
@@ -11796,7 +11094,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -11847,7 +11145,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
@@ -11898,7 +11196,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -11949,7 +11247,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>16</v>
@@ -11998,7 +11296,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>24</v>
@@ -12047,7 +11345,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>32</v>
@@ -12096,7 +11394,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -12121,7 +11419,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -12146,7 +11444,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -12171,7 +11469,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -12196,7 +11494,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -12221,7 +11519,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="16" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -12248,7 +11546,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="16" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12275,7 +11573,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="16" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -12322,7 +11620,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12347,7 +11645,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="1"/>
       <c r="B22" s="12">
         <v>1</v>
@@ -12396,7 +11694,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>2</v>
@@ -12447,7 +11745,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>4</v>
@@ -12498,7 +11796,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>8</v>
@@ -12549,7 +11847,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>16</v>
@@ -12598,7 +11896,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>24</v>
@@ -12647,7 +11945,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>32</v>
@@ -12696,7 +11994,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12721,7 +12019,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12746,7 +12044,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -12771,7 +12069,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -12796,7 +12094,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -12821,7 +12119,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -12846,7 +12144,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -12871,7 +12169,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -12896,7 +12194,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -12921,7 +12219,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12946,7 +12244,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -12981,26 +12279,26 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -13008,8 +12306,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
@@ -13018,7 +12316,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -13062,8 +12360,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -13110,7 +12408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="15">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -13149,7 +12447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -13188,7 +12486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -13227,7 +12525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -13263,7 +12561,7 @@
         <v>2.7614935786131056</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -13299,7 +12597,7 @@
         <v>2.120655895248964</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="15">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -13335,12 +12633,12 @@
         <v>5.2660217385448582E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="15" thickBot="1">
       <c r="D14" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="D15" s="25" t="s">
         <v>0</v>
       </c>
@@ -13349,7 +12647,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15" thickBot="1">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -13393,7 +12691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18">
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -13440,7 +12738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="15">
       <c r="B19" s="6">
         <v>2</v>
       </c>
@@ -13479,7 +12777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18">
       <c r="B20" s="6">
         <v>4</v>
       </c>
@@ -13518,7 +12816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18">
       <c r="B21" s="6">
         <v>8</v>
       </c>
@@ -13557,7 +12855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18">
       <c r="B22" s="6">
         <v>16</v>
       </c>
@@ -13593,7 +12891,7 @@
         <v>0.27658461075667745</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18">
       <c r="B23" s="6">
         <v>24</v>
       </c>
@@ -13629,7 +12927,7 @@
         <v>0.23130431820296091</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="15">
       <c r="B24" s="6">
         <v>32</v>
       </c>
@@ -13689,32 +12987,32 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
@@ -13723,7 +13021,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -13767,8 +13065,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -13815,7 +13113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="15">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -13854,7 +13152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -13893,7 +13191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -13932,7 +13230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -13968,7 +13266,7 @@
         <v>2.4022807065291349</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -14004,7 +13302,7 @@
         <v>2.1479552727316973</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="15">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -14059,30 +13357,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -14090,8 +13388,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
@@ -14100,7 +13398,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -14144,8 +13442,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -14192,7 +13490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -14231,7 +13529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -14270,7 +13568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -14309,7 +13607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -14348,7 +13646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -14384,7 +13682,7 @@
         <v>5.5219367616594814</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -14420,13 +13718,13 @@
         <v>2.3662381776710505E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="D14" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15" thickBot="1"/>
+    <row r="16" spans="2:18" ht="15" thickBot="1">
       <c r="D16" s="25" t="s">
         <v>0</v>
       </c>
@@ -14435,7 +13733,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="15" thickBot="1">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -14479,7 +13777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18">
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -14526,7 +13824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18">
       <c r="B20" s="6">
         <v>2</v>
       </c>
@@ -14565,7 +13863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18">
       <c r="B21" s="6">
         <v>4</v>
       </c>
@@ -14604,7 +13902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18">
       <c r="B22" s="6">
         <v>8</v>
       </c>
@@ -14643,7 +13941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18">
       <c r="B23" s="6">
         <v>16</v>
       </c>
@@ -14682,7 +13980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18">
       <c r="B24" s="6">
         <v>24</v>
       </c>
@@ -14718,7 +14016,7 @@
         <v>0.70968622530435288</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18">
       <c r="B25" s="6">
         <v>32</v>
       </c>
@@ -14778,32 +14076,32 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
@@ -14812,7 +14110,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -14856,8 +14154,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
+    <row r="6" spans="2:18">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -14904,7 +14202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -14943,7 +14241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -14982,7 +14280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -15021,7 +14319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -15060,7 +14358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -15096,7 +14394,7 @@
         <v>6.7835213301924098</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -15151,41 +14449,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="1.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="29" customHeight="1" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
@@ -15194,7 +14492,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:24" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="35" customHeight="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -15235,8 +14533,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="8" customHeight="1"/>
+    <row r="6" spans="2:24">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -15275,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -15315,7 +14613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -15355,7 +14653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -15394,7 +14692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -15429,11 +14727,8 @@
         <f t="shared" si="3"/>
         <v>6.3276290771537882</v>
       </c>
-      <c r="T10" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="6">
         <v>24</v>
       </c>
@@ -15469,7 +14764,7 @@
         <v>5.4597317198729165</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24">
       <c r="B12" s="6">
         <v>32</v>
       </c>
@@ -15505,13 +14800,13 @@
         <v>2.5328336357906784</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="15" thickBot="1"/>
+    <row r="19" spans="2:20" ht="15" thickBot="1">
       <c r="D19" s="25" t="s">
         <v>0</v>
       </c>
@@ -15520,7 +14815,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="15" thickBot="1">
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
@@ -15555,7 +14850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -15594,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="6">
         <v>2</v>
       </c>
@@ -15634,7 +14929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="6">
         <v>4</v>
       </c>
@@ -15674,7 +14969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20">
       <c r="B25" s="6">
         <v>8</v>
       </c>
@@ -15713,7 +15008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20">
       <c r="B26" s="6">
         <v>16</v>
       </c>
@@ -15748,11 +15043,8 @@
         <f t="shared" si="7"/>
         <v>6.2148882616678494</v>
       </c>
-      <c r="T26" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -15787,11 +15079,8 @@
         <f t="shared" si="7"/>
         <v>11.379666930855374</v>
       </c>
-      <c r="T27" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" s="6">
         <v>32</v>
       </c>
@@ -15847,21 +15136,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.85546875" style="12"/>
+    <col min="1" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="16" thickBot="1">
       <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="16" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -15889,7 +15178,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="16" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -15939,7 +15228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -15965,7 +15254,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1"/>
       <c r="B6" s="12">
         <v>1</v>
@@ -16019,7 +15308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -16071,7 +15360,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
@@ -16123,7 +15412,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -16175,7 +15464,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>16</v>
@@ -16227,7 +15516,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>24</v>
@@ -16277,7 +15566,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>32</v>
@@ -16327,7 +15616,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -16353,7 +15642,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16379,7 +15668,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -16405,7 +15694,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16431,7 +15720,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -16457,7 +15746,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="16" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -16485,7 +15774,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="16" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -16513,7 +15802,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="16" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -16559,7 +15848,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16585,7 +15874,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="1"/>
       <c r="B22" s="12">
         <v>1</v>
@@ -16635,26 +15924,26 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>2</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2">
-        <v>788.69228699999996</v>
+        <v>211.13571999999999</v>
       </c>
       <c r="E23" s="2">
-        <v>777.49226699999997</v>
+        <v>208.479456</v>
       </c>
       <c r="F23" s="2">
-        <v>203.10920899999999</v>
+        <v>213.69819000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>233.046932</v>
+        <v>209.20340899999999</v>
       </c>
       <c r="H23" s="2">
-        <v>198.07222999999999</v>
+        <v>208.511495</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -16664,11 +15953,11 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2">
         <f t="shared" si="4"/>
-        <v>440.08258499999994</v>
+        <v>210.20565400000001</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="5"/>
-        <v>198.07222999999999</v>
+        <v>208.479456</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="2">
@@ -16677,7 +15966,7 @@
       </c>
       <c r="S23" s="3">
         <f t="shared" ref="S23:S28" si="7">$P$6/P23</f>
-        <v>3.2787609095934345</v>
+        <v>3.1150862413992484</v>
       </c>
       <c r="T23" s="2">
         <v>2</v>
@@ -16687,26 +15976,26 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>4</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2">
-        <v>461.64355799999998</v>
+        <v>127.434258</v>
       </c>
       <c r="E24" s="2">
-        <v>483.69543800000002</v>
+        <v>129.89353</v>
       </c>
       <c r="F24" s="2">
-        <v>96.687968999999995</v>
+        <v>127.538875</v>
       </c>
       <c r="G24" s="2">
-        <v>96.116731999999999</v>
+        <v>123.95549099999999</v>
       </c>
       <c r="H24" s="2">
-        <v>103.198589</v>
+        <v>126.386438</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -16716,11 +16005,11 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2">
         <f t="shared" si="4"/>
-        <v>248.2684572</v>
+        <v>127.04171839999999</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="5"/>
-        <v>96.116731999999999</v>
+        <v>123.95549099999999</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="2">
@@ -16729,7 +16018,7 @@
       </c>
       <c r="S24" s="3">
         <f t="shared" si="7"/>
-        <v>6.7566954419548928</v>
+        <v>5.2392312737480902</v>
       </c>
       <c r="T24" s="2">
         <v>4</v>
@@ -16739,26 +16028,26 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>8</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2">
-        <v>295.98242199999999</v>
+        <v>83.840704000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>62.926752</v>
+        <v>83.127154000000004</v>
       </c>
       <c r="F25" s="2">
-        <v>63.029746000000003</v>
+        <v>83.134394</v>
       </c>
       <c r="G25" s="2">
-        <v>63.568255999999998</v>
+        <v>81.295789999999997</v>
       </c>
       <c r="H25" s="2">
-        <v>64.232428999999996</v>
+        <v>83.313148999999996</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -16768,11 +16057,11 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2">
         <f t="shared" si="4"/>
-        <v>109.94792099999999</v>
+        <v>82.942238200000006</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="5"/>
-        <v>62.926752</v>
+        <v>81.295789999999997</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="2">
@@ -16781,7 +16070,7 @@
       </c>
       <c r="S25" s="3">
         <f t="shared" si="7"/>
-        <v>10.32043549617816</v>
+        <v>7.9885008190461031</v>
       </c>
       <c r="T25" s="1">
         <v>8</v>
@@ -16791,26 +16080,26 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>16</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2">
-        <v>215.376498</v>
+        <v>60.809075</v>
       </c>
       <c r="E26" s="2">
-        <v>48.366109000000002</v>
+        <v>62.935505999999997</v>
       </c>
       <c r="F26" s="2">
-        <v>50.200696000000001</v>
+        <v>62.183222000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>50.805895</v>
+        <v>61.184103999999998</v>
       </c>
       <c r="H26" s="2">
-        <v>49.374671999999997</v>
+        <v>61.345768</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -16820,11 +16109,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>82.824774000000005</v>
+        <v>61.691535000000002</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="5"/>
-        <v>48.366109000000002</v>
+        <v>60.809075</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="2">
@@ -16833,7 +16122,7 @@
       </c>
       <c r="S26" s="3">
         <f t="shared" si="7"/>
-        <v>13.427408125801477</v>
+        <v>10.679844825792859</v>
       </c>
       <c r="T26" s="1">
         <v>16</v>
@@ -16843,26 +16132,26 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>24</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2">
-        <v>178.953407</v>
+        <v>56.705671000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>46.038947</v>
+        <v>57.158566</v>
       </c>
       <c r="F27" s="2">
-        <v>52.828918999999999</v>
+        <v>57.056151999999997</v>
       </c>
       <c r="G27" s="2">
-        <v>45.950128999999997</v>
+        <v>55.654589000000001</v>
       </c>
       <c r="H27" s="2">
-        <v>46.894303000000001</v>
+        <v>54.900084</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -16872,11 +16161,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2">
         <f t="shared" si="4"/>
-        <v>74.133140999999995</v>
+        <v>56.295012399999997</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="5"/>
-        <v>45.950128999999997</v>
+        <v>54.900084</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="2">
@@ -16885,7 +16174,7 @@
       </c>
       <c r="S27" s="3">
         <f t="shared" si="7"/>
-        <v>14.133398515595028</v>
+        <v>11.829334997010204</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -16893,26 +16182,26 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>32</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2">
-        <v>128.395645</v>
+        <v>46.610854000000003</v>
       </c>
       <c r="E28" s="2">
-        <v>62.674204000000003</v>
+        <v>46.610897000000001</v>
       </c>
       <c r="F28" s="2">
-        <v>64.78537</v>
+        <v>44.709147999999999</v>
       </c>
       <c r="G28" s="2">
-        <v>70.718722999999997</v>
+        <v>42.952705000000002</v>
       </c>
       <c r="H28" s="2">
-        <v>70.842196999999999</v>
+        <v>44.746536999999996</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -16922,11 +16211,11 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2">
         <f t="shared" si="4"/>
-        <v>79.483227799999995</v>
+        <v>45.1260282</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="5"/>
-        <v>62.674204000000003</v>
+        <v>42.952705000000002</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="2">
@@ -16935,7 +16224,7 @@
       </c>
       <c r="S28" s="3">
         <f t="shared" si="7"/>
-        <v>10.362022068920092</v>
+        <v>15.119687689052411</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -16943,7 +16232,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16969,7 +16258,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16995,7 +16284,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -17021,7 +16310,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -17047,7 +16336,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -17073,7 +16362,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -17099,7 +16388,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -17125,7 +16414,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -17151,7 +16440,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -17177,7 +16466,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -17207,22 +16496,22 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="15" thickBot="1"/>
+    <row r="3" spans="2:13" ht="15" thickBot="1">
       <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
@@ -17231,7 +16520,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15" thickBot="1">
       <c r="D4" s="8">
         <v>1</v>
       </c>
@@ -17257,8 +16546,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:13">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -17290,7 +16579,7 @@
         <v>49.6259412</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
@@ -17318,7 +16607,7 @@
         <v>13.955185</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -17346,7 +16635,7 @@
         <v>12.759304</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>

--- a/gráficosNodes2.xlsx
+++ b/gráficosNodes2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes-641" sheetId="6" r:id="rId1"/>
@@ -760,6 +760,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1252,6 +1253,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1898,6 +1900,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2305,6 +2308,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2384,6 +2388,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3277,7 +3282,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Tempo(segundos)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4363,7 +4368,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (seconds)</a:t>
+                  <a:t>Tempo(segundos)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5046,6 +5051,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10228,8 +10234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="K26" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="L34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10575,8 +10581,7 @@
         <v>21.524288599999998</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>28.109921</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
@@ -10584,7 +10589,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
-        <v>0.64976</v>
+        <v>7.223428340478082E-4</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -14449,8 +14454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AA60" sqref="AA60"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
